--- a/Excel/channel_numbers.xlsx
+++ b/Excel/channel_numbers.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="numbers" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -56,7 +57,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,13 +70,26 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -104,7 +118,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -119,6 +133,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -140,8 +158,8 @@
   </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="A1:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1478,4 +1496,1053 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:S19"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:T20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="19" min="2" style="0" width="4.45748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>76</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>82</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>84</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>92</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>94</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>97</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>98</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>101</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>102</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>104</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>105</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="n">
+        <v>107</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>108</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>109</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>111</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>112</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>113</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>114</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>115</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>116</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>117</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>118</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>119</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>122</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>123</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>126</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>127</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>128</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>129</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>131</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>132</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>133</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>134</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>136</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>137</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>138</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>139</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>141</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="n">
+        <v>143</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>144</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>145</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>146</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>147</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>148</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>149</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>151</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>152</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>153</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>154</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>158</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>159</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="n">
+        <v>161</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>163</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>164</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>165</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>166</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>167</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>168</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>169</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>170</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>172</v>
+      </c>
+      <c r="N12" s="4" t="n">
+        <v>173</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>174</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <v>175</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>176</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v>177</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="n">
+        <v>179</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>180</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>181</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>182</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>183</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>184</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>185</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>186</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>187</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>188</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>189</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>190</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>191</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <v>192</v>
+      </c>
+      <c r="P13" s="4" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <v>194</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="n">
+        <v>197</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>198</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>199</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>201</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>202</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>203</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>204</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>206</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <v>207</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>208</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <v>209</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>210</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>211</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>212</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <v>213</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="n">
+        <v>215</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>216</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>217</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>218</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>219</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>221</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>222</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>223</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>224</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>225</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>226</v>
+      </c>
+      <c r="N15" s="4" t="n">
+        <v>227</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <v>228</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <v>229</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <v>230</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v>231</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>233</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>234</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>235</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>236</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>237</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>238</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>239</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>240</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>241</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>242</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>243</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>244</v>
+      </c>
+      <c r="O16" s="4" t="n">
+        <v>245</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <v>246</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v>247</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>248</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>249</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>251</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>252</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>253</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>254</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <v>255</v>
+      </c>
+      <c r="K17" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>257</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>258</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>259</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>261</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>262</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>263</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>264</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>265</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>266</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>267</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>268</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>269</v>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>270</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>272</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>273</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>274</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>275</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>276</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>278</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <v>279</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <v>280</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>281</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>282</v>
+      </c>
+      <c r="N19" s="4" t="n">
+        <v>283</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <v>284</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:S19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFAEA79F"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Excel/channel_numbers.xlsx
+++ b/Excel/channel_numbers.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="numbers" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -57,7 +58,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,8 +77,20 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF33"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -90,6 +103,13 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -118,7 +138,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -139,6 +159,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -148,6 +192,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99FF33"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -159,7 +263,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="A1:T20"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1505,15 +1609,15 @@
   </sheetPr>
   <dimension ref="B2:S19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:T20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="19" min="2" style="0" width="4.45748987854251"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="19" min="2" style="0" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1541,10 +1645,10 @@
       <c r="I2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>6</v>
       </c>
       <c r="L2" s="4" t="n">
@@ -1597,10 +1701,10 @@
       <c r="I3" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>17</v>
       </c>
       <c r="L3" s="4" t="n">
@@ -1653,10 +1757,10 @@
       <c r="I4" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>30</v>
       </c>
       <c r="L4" s="4" t="n">
@@ -1709,10 +1813,10 @@
       <c r="I5" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>45</v>
       </c>
       <c r="L5" s="4" t="n">
@@ -1765,10 +1869,10 @@
       <c r="I6" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>62</v>
       </c>
       <c r="L6" s="4" t="n">
@@ -1821,10 +1925,10 @@
       <c r="I7" s="4" t="n">
         <v>78</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="5" t="n">
         <v>79</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>80</v>
       </c>
       <c r="L7" s="4" t="n">
@@ -1877,10 +1981,10 @@
       <c r="I8" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="5" t="n">
         <v>97</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>98</v>
       </c>
       <c r="L8" s="4" t="n">
@@ -1933,10 +2037,10 @@
       <c r="I9" s="4" t="n">
         <v>114</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="5" t="n">
         <v>115</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>116</v>
       </c>
       <c r="L9" s="4" t="n">
@@ -1989,13 +2093,13 @@
       <c r="I10" s="4" t="n">
         <v>132</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="J10" s="5" t="n">
         <v>133</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>134</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="6" t="n">
         <v>135</v>
       </c>
       <c r="M10" s="4" t="n">
@@ -2045,10 +2149,10 @@
       <c r="I11" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="J11" s="5" t="n">
         <v>151</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>152</v>
       </c>
       <c r="L11" s="4" t="n">
@@ -2101,10 +2205,10 @@
       <c r="I12" s="4" t="n">
         <v>168</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="J12" s="5" t="n">
         <v>169</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>170</v>
       </c>
       <c r="L12" s="4" t="n">
@@ -2157,10 +2261,10 @@
       <c r="I13" s="4" t="n">
         <v>186</v>
       </c>
-      <c r="J13" s="4" t="n">
+      <c r="J13" s="5" t="n">
         <v>187</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>188</v>
       </c>
       <c r="L13" s="4" t="n">
@@ -2213,10 +2317,10 @@
       <c r="I14" s="4" t="n">
         <v>204</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="J14" s="5" t="n">
         <v>205</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>206</v>
       </c>
       <c r="L14" s="4" t="n">
@@ -2269,10 +2373,10 @@
       <c r="I15" s="4" t="n">
         <v>222</v>
       </c>
-      <c r="J15" s="4" t="n">
+      <c r="J15" s="5" t="n">
         <v>223</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>224</v>
       </c>
       <c r="L15" s="4" t="n">
@@ -2325,10 +2429,10 @@
       <c r="I16" s="4" t="n">
         <v>239</v>
       </c>
-      <c r="J16" s="4" t="n">
+      <c r="J16" s="5" t="n">
         <v>240</v>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>241</v>
       </c>
       <c r="L16" s="4" t="n">
@@ -2381,10 +2485,10 @@
       <c r="I17" s="4" t="n">
         <v>254</v>
       </c>
-      <c r="J17" s="4" t="n">
+      <c r="J17" s="5" t="n">
         <v>255</v>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>256</v>
       </c>
       <c r="L17" s="4" t="n">
@@ -2437,10 +2541,10 @@
       <c r="I18" s="4" t="n">
         <v>267</v>
       </c>
-      <c r="J18" s="4" t="n">
+      <c r="J18" s="5" t="n">
         <v>268</v>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>269</v>
       </c>
       <c r="L18" s="4" t="n">
@@ -2493,10 +2597,10 @@
       <c r="I19" s="4" t="n">
         <v>278</v>
       </c>
-      <c r="J19" s="4" t="n">
+      <c r="J19" s="5" t="n">
         <v>279</v>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>280</v>
       </c>
       <c r="L19" s="4" t="n">
@@ -2525,8 +2629,20 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:S19">
+  <conditionalFormatting sqref="L2:S19,B2:I19">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFAEA79F"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:K19">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0"/>
@@ -2545,4 +2661,1461 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:DR19"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z18" activeCellId="0" sqref="Z18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="19" min="2" style="0" width="4.57894736842105"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7" t="n">
+        <v>95</v>
+      </c>
+      <c r="X5" s="7" t="n">
+        <v>96</v>
+      </c>
+      <c r="Y5" s="8" t="n">
+        <v>97</v>
+      </c>
+      <c r="Z5" s="8" t="n">
+        <v>98</v>
+      </c>
+      <c r="AA5" s="7" t="n">
+        <v>99</v>
+      </c>
+      <c r="AB5" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="7" t="n">
+        <v>113</v>
+      </c>
+      <c r="AD5" s="7" t="n">
+        <v>114</v>
+      </c>
+      <c r="AE5" s="8" t="n">
+        <v>115</v>
+      </c>
+      <c r="AF5" s="8" t="n">
+        <v>116</v>
+      </c>
+      <c r="AG5" s="7" t="n">
+        <v>117</v>
+      </c>
+      <c r="AH5" s="7" t="n">
+        <v>118</v>
+      </c>
+      <c r="AI5" s="7" t="n">
+        <v>131</v>
+      </c>
+      <c r="AJ5" s="7" t="n">
+        <v>132</v>
+      </c>
+      <c r="AK5" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="AL5" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="AM5" s="7" t="n">
+        <v>135</v>
+      </c>
+      <c r="AN5" s="7" t="n">
+        <v>136</v>
+      </c>
+      <c r="AO5" s="7" t="n">
+        <v>149</v>
+      </c>
+      <c r="AP5" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AQ5" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR5" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="AS5" s="7" t="n">
+        <v>153</v>
+      </c>
+      <c r="AT5" s="7" t="n">
+        <v>154</v>
+      </c>
+      <c r="AU5" s="7" t="n">
+        <v>167</v>
+      </c>
+      <c r="AV5" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="AW5" s="8" t="n">
+        <v>169</v>
+      </c>
+      <c r="AX5" s="8" t="n">
+        <v>170</v>
+      </c>
+      <c r="AY5" s="7" t="n">
+        <v>171</v>
+      </c>
+      <c r="AZ5" s="7" t="n">
+        <v>172</v>
+      </c>
+      <c r="BA5" s="7" t="n">
+        <v>185</v>
+      </c>
+      <c r="BB5" s="7" t="n">
+        <v>186</v>
+      </c>
+      <c r="BC5" s="8" t="n">
+        <v>187</v>
+      </c>
+      <c r="BD5" s="8" t="n">
+        <v>188</v>
+      </c>
+      <c r="BE5" s="7" t="n">
+        <v>189</v>
+      </c>
+      <c r="BF5" s="7" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>57</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>59</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>63</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>66</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>76</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>77</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>78</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>79</v>
+      </c>
+      <c r="K7" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>82</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>83</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="W7" s="9" t="n">
+        <v>57</v>
+      </c>
+      <c r="X7" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="Y7" s="9" t="n">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA7" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="AB7" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="AC7" s="9" t="n">
+        <v>63</v>
+      </c>
+      <c r="AD7" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="AE7" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF7" s="9" t="n">
+        <v>66</v>
+      </c>
+      <c r="AG7" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH7" s="9" t="n">
+        <v>76</v>
+      </c>
+      <c r="AI7" s="9" t="n">
+        <v>77</v>
+      </c>
+      <c r="AJ7" s="9" t="n">
+        <v>78</v>
+      </c>
+      <c r="AK7" s="10" t="n">
+        <v>79</v>
+      </c>
+      <c r="AL7" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM7" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN7" s="9" t="n">
+        <v>82</v>
+      </c>
+      <c r="AO7" s="9" t="n">
+        <v>83</v>
+      </c>
+      <c r="AP7" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="AQ7" s="9" t="n">
+        <v>93</v>
+      </c>
+      <c r="AR7" s="9" t="n">
+        <v>94</v>
+      </c>
+      <c r="AS7" s="7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AT7" s="7" t="n">
+        <v>96</v>
+      </c>
+      <c r="AU7" s="8" t="n">
+        <v>97</v>
+      </c>
+      <c r="AV7" s="8" t="n">
+        <v>98</v>
+      </c>
+      <c r="AW7" s="7" t="n">
+        <v>99</v>
+      </c>
+      <c r="AX7" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AY7" s="9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AZ7" s="9" t="n">
+        <v>102</v>
+      </c>
+      <c r="BA7" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="BB7" s="9" t="n">
+        <v>112</v>
+      </c>
+      <c r="BC7" s="7" t="n">
+        <v>113</v>
+      </c>
+      <c r="BD7" s="7" t="n">
+        <v>114</v>
+      </c>
+      <c r="BE7" s="8" t="n">
+        <v>115</v>
+      </c>
+      <c r="BF7" s="8" t="n">
+        <v>116</v>
+      </c>
+      <c r="BG7" s="7" t="n">
+        <v>117</v>
+      </c>
+      <c r="BH7" s="7" t="n">
+        <v>118</v>
+      </c>
+      <c r="BI7" s="9" t="n">
+        <v>119</v>
+      </c>
+      <c r="BJ7" s="9" t="n">
+        <v>120</v>
+      </c>
+      <c r="BK7" s="9" t="n">
+        <v>129</v>
+      </c>
+      <c r="BL7" s="9" t="n">
+        <v>130</v>
+      </c>
+      <c r="BM7" s="7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BN7" s="7" t="n">
+        <v>132</v>
+      </c>
+      <c r="BO7" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="BP7" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="BQ7" s="7" t="n">
+        <v>135</v>
+      </c>
+      <c r="BR7" s="7" t="n">
+        <v>136</v>
+      </c>
+      <c r="BS7" s="9" t="n">
+        <v>137</v>
+      </c>
+      <c r="BT7" s="9" t="n">
+        <v>138</v>
+      </c>
+      <c r="BU7" s="9" t="n">
+        <v>147</v>
+      </c>
+      <c r="BV7" s="9" t="n">
+        <v>148</v>
+      </c>
+      <c r="BW7" s="7" t="n">
+        <v>149</v>
+      </c>
+      <c r="BX7" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="BY7" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BZ7" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="CA7" s="7" t="n">
+        <v>153</v>
+      </c>
+      <c r="CB7" s="7" t="n">
+        <v>154</v>
+      </c>
+      <c r="CC7" s="9" t="n">
+        <v>155</v>
+      </c>
+      <c r="CD7" s="9" t="n">
+        <v>156</v>
+      </c>
+      <c r="CE7" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="CF7" s="9" t="n">
+        <v>166</v>
+      </c>
+      <c r="CG7" s="7" t="n">
+        <v>167</v>
+      </c>
+      <c r="CH7" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="CI7" s="8" t="n">
+        <v>169</v>
+      </c>
+      <c r="CJ7" s="8" t="n">
+        <v>170</v>
+      </c>
+      <c r="CK7" s="7" t="n">
+        <v>171</v>
+      </c>
+      <c r="CL7" s="7" t="n">
+        <v>172</v>
+      </c>
+      <c r="CM7" s="9" t="n">
+        <v>173</v>
+      </c>
+      <c r="CN7" s="9" t="n">
+        <v>174</v>
+      </c>
+      <c r="CO7" s="9" t="n">
+        <v>183</v>
+      </c>
+      <c r="CP7" s="9" t="n">
+        <v>184</v>
+      </c>
+      <c r="CQ7" s="7" t="n">
+        <v>185</v>
+      </c>
+      <c r="CR7" s="7" t="n">
+        <v>186</v>
+      </c>
+      <c r="CS7" s="8" t="n">
+        <v>187</v>
+      </c>
+      <c r="CT7" s="8" t="n">
+        <v>188</v>
+      </c>
+      <c r="CU7" s="7" t="n">
+        <v>189</v>
+      </c>
+      <c r="CV7" s="7" t="n">
+        <v>190</v>
+      </c>
+      <c r="CW7" s="9" t="n">
+        <v>191</v>
+      </c>
+      <c r="CX7" s="9" t="n">
+        <v>192</v>
+      </c>
+      <c r="CY7" s="9" t="n">
+        <v>201</v>
+      </c>
+      <c r="CZ7" s="9" t="n">
+        <v>202</v>
+      </c>
+      <c r="DA7" s="9" t="n">
+        <v>203</v>
+      </c>
+      <c r="DB7" s="9" t="n">
+        <v>204</v>
+      </c>
+      <c r="DC7" s="10" t="n">
+        <v>205</v>
+      </c>
+      <c r="DD7" s="10" t="n">
+        <v>206</v>
+      </c>
+      <c r="DE7" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="DF7" s="9" t="n">
+        <v>208</v>
+      </c>
+      <c r="DG7" s="9" t="n">
+        <v>209</v>
+      </c>
+      <c r="DH7" s="9" t="n">
+        <v>210</v>
+      </c>
+      <c r="DI7" s="9" t="n">
+        <v>219</v>
+      </c>
+      <c r="DJ7" s="9" t="n">
+        <v>220</v>
+      </c>
+      <c r="DK7" s="9" t="n">
+        <v>221</v>
+      </c>
+      <c r="DL7" s="9" t="n">
+        <v>222</v>
+      </c>
+      <c r="DM7" s="10" t="n">
+        <v>223</v>
+      </c>
+      <c r="DN7" s="10" t="n">
+        <v>224</v>
+      </c>
+      <c r="DO7" s="9" t="n">
+        <v>225</v>
+      </c>
+      <c r="DP7" s="9" t="n">
+        <v>226</v>
+      </c>
+      <c r="DQ7" s="9" t="n">
+        <v>227</v>
+      </c>
+      <c r="DR7" s="9" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>92</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>93</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>94</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>95</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>96</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>97</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>98</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>99</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>101</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>102</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>104</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>105</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="n">
+        <v>107</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>108</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>109</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>112</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>113</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>114</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>115</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>116</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>117</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>118</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>119</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>120</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>122</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>123</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>126</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>129</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>130</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>131</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>132</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>134</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>135</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>136</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>137</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>138</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>139</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>141</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="n">
+        <v>143</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>144</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>145</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>146</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>147</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>148</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>149</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>153</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>154</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>155</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>156</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>158</v>
+      </c>
+      <c r="R11" s="6" t="n">
+        <v>159</v>
+      </c>
+      <c r="S11" s="6" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="n">
+        <v>161</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>163</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>164</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>165</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>166</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>167</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>168</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>169</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>170</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <v>171</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>172</v>
+      </c>
+      <c r="N12" s="9" t="n">
+        <v>173</v>
+      </c>
+      <c r="O12" s="9" t="n">
+        <v>174</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <v>175</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>176</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v>177</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="n">
+        <v>179</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>180</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>181</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>182</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>183</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>184</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>185</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>186</v>
+      </c>
+      <c r="J13" s="8" t="n">
+        <v>187</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>188</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <v>189</v>
+      </c>
+      <c r="M13" s="7" t="n">
+        <v>190</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>191</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>192</v>
+      </c>
+      <c r="P13" s="4" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <v>194</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>195</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="n">
+        <v>197</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>198</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>199</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>201</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>202</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>203</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>204</v>
+      </c>
+      <c r="J14" s="10" t="n">
+        <v>205</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <v>206</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>208</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>209</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>210</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>211</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>212</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <v>213</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="n">
+        <v>215</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>216</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>217</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>218</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>219</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>220</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>221</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>222</v>
+      </c>
+      <c r="J15" s="10" t="n">
+        <v>223</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <v>224</v>
+      </c>
+      <c r="L15" s="9" t="n">
+        <v>225</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>226</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>227</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>228</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <v>229</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <v>230</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v>231</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>233</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>234</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>235</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>236</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>237</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>238</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>239</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>241</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>242</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>243</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>244</v>
+      </c>
+      <c r="O16" s="4" t="n">
+        <v>245</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <v>246</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v>247</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>248</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>249</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>251</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>252</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>253</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>254</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>255</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>256</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>257</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>258</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>259</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v>260</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>261</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>262</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>263</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>264</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>265</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>266</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>267</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>270</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>271</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>272</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>273</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>274</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>275</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>276</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>278</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>279</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>280</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>281</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>282</v>
+      </c>
+      <c r="N19" s="4" t="n">
+        <v>283</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <v>284</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Excel/channel_numbers.xlsx
+++ b/Excel/channel_numbers.xlsx
@@ -1,19 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huw\parmec_agr_ml_surrogate\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A9CC78-BF65-4117-BA0D-0DBFD97ED672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="989" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="numbers" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="numbers" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" refMode="R1C1" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -21,12 +34,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>133, 134, 151, 152</t>
+  </si>
+  <si>
+    <t>95, 96, 97, 98, 99, 100, 113, 114, 115, 116, 117, 118, 131, 132, 133, 134, 135, 136, 149, 150, 151, 152, 153, 154, 167, 168, 169, 170, 171, 172, 185, 186, 187, 188, 189, 190</t>
+  </si>
+  <si>
+    <t>57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -35,22 +81,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -91,107 +122,79 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -250,2413 +253,2698 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
+    <col min="1" max="10" width="8.5703125"/>
+    <col min="11" max="12" width="8.5703125" style="1"/>
+    <col min="13" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="n">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="E1" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="F1" s="2">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="G1" s="2">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="H1" s="2">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="I1" s="2">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="n">
+      <c r="J1" s="2">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="n">
+      <c r="K1" s="2">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="n">
+      <c r="L1" s="2">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="M1" s="2">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="N1" s="2">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="n">
+      <c r="O1" s="2">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="n">
+      <c r="P1" s="2">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="Q1" s="2">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="n">
+      <c r="R1" s="2">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="n">
+      <c r="S1" s="2">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="n">
+      <c r="T1" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="2" t="n">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="2">
         <v>2</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="3">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="2">
         <v>2</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="2">
         <v>3</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="2">
         <v>4</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="2">
         <v>5</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="2">
         <v>6</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="2">
         <v>7</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="2">
         <v>8</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="n">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="1">
         <v>5</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="1">
         <v>6</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3">
         <v>7</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3">
         <v>8</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3">
         <v>9</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3">
         <v>10</v>
       </c>
-      <c r="Q3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>13</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>14</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>15</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="1">
         <v>16</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="1">
         <v>17</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>18</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>19</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4">
         <v>20</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>21</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4">
         <v>22</v>
       </c>
-      <c r="R4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>23</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>24</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>25</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>26</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>27</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>28</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="1">
         <v>29</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="1">
         <v>30</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>31</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5">
         <v>32</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5">
         <v>33</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5">
         <v>34</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5">
         <v>35</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5">
         <v>36</v>
       </c>
-      <c r="S5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>37</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>38</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>39</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>40</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>41</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>42</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>43</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="1">
         <v>44</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="1">
         <v>45</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>46</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>47</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6">
         <v>48</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>49</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6">
         <v>50</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6">
         <v>51</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6">
         <v>52</v>
       </c>
-      <c r="T6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>53</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>54</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>55</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>56</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>57</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>58</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>59</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>60</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="1">
         <v>61</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="L7" s="1">
         <v>62</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7">
         <v>63</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7">
         <v>64</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7">
         <v>65</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>66</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7">
         <v>67</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7">
         <v>68</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7">
         <v>69</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7">
         <v>70</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>71</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>72</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>73</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>74</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>75</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>76</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>77</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>78</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="1">
         <v>79</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="1">
         <v>80</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>81</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8">
         <v>82</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8">
         <v>83</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>84</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8">
         <v>85</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8">
         <v>86</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8">
         <v>87</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8">
         <v>88</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>89</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>90</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>91</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>92</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>93</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>94</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>95</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>96</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="1">
         <v>97</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="L9" s="1">
         <v>98</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9">
         <v>99</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9">
         <v>100</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9">
         <v>101</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>102</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9">
         <v>103</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9">
         <v>104</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9">
         <v>105</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9">
         <v>106</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>107</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>108</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>109</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>110</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>111</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>112</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>113</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>114</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="1">
         <v>115</v>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="L10" s="1">
         <v>116</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10">
         <v>117</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10">
         <v>118</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10">
         <v>119</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10">
         <v>120</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10">
         <v>121</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10">
         <v>122</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10">
         <v>123</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10">
         <v>124</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>125</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>126</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>127</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>128</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1">
         <v>129</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="1">
         <v>130</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="1">
         <v>131</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="1">
         <v>132</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="K11" s="1">
         <v>133</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="L11" s="1">
         <v>134</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="1">
         <v>135</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="1">
         <v>136</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="O11" s="1">
         <v>137</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="P11" s="1">
         <v>138</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="1">
         <v>139</v>
       </c>
-      <c r="R11" s="1" t="n">
+      <c r="R11" s="1">
         <v>140</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="S11" s="1">
         <v>141</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="T11" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>143</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>144</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>145</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="1">
         <v>146</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="1">
         <v>147</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="1">
         <v>148</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="1">
         <v>149</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="J12" s="1">
         <v>150</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="K12" s="1">
         <v>151</v>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="L12" s="1">
         <v>152</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="1">
         <v>153</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="N12" s="1">
         <v>154</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="O12" s="1">
         <v>155</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="P12" s="1">
         <v>156</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="Q12" s="1">
         <v>157</v>
       </c>
-      <c r="R12" s="1" t="n">
+      <c r="R12" s="1">
         <v>158</v>
       </c>
-      <c r="S12" s="1" t="n">
+      <c r="S12" s="1">
         <v>159</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="T12" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>161</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>162</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>163</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>164</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>165</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>166</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>167</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13">
         <v>168</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="1">
         <v>169</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="L13" s="1">
         <v>170</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13">
         <v>171</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13">
         <v>172</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13">
         <v>173</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13">
         <v>174</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13">
         <v>175</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13">
         <v>176</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S13">
         <v>177</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="T13">
         <v>178</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>179</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>180</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>181</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>182</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>183</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14">
         <v>184</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14">
         <v>185</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14">
         <v>186</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" s="1">
         <v>187</v>
       </c>
-      <c r="L14" s="1" t="n">
+      <c r="L14" s="1">
         <v>188</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14">
         <v>189</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14">
         <v>190</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14">
         <v>191</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14">
         <v>192</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14">
         <v>193</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14">
         <v>194</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14">
         <v>195</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="T14">
         <v>196</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>197</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>198</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>199</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>200</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>201</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>202</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>203</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15">
         <v>204</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="K15" s="1">
         <v>205</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="L15" s="1">
         <v>206</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15">
         <v>207</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15">
         <v>208</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15">
         <v>209</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15">
         <v>210</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15">
         <v>211</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15">
         <v>212</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15">
         <v>213</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15">
         <v>214</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>215</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>216</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>217</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>218</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>219</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16">
         <v>220</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16">
         <v>221</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16">
         <v>222</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="K16" s="1">
         <v>223</v>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="L16" s="1">
         <v>224</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16">
         <v>225</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16">
         <v>226</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="O16">
         <v>227</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16">
         <v>228</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16">
         <v>229</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16">
         <v>230</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="S16">
         <v>231</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="T16">
         <v>232</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>233</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>234</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>235</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>236</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>237</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>238</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>239</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="1">
         <v>240</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="L17" s="1">
         <v>241</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17">
         <v>242</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17">
         <v>243</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17">
         <v>244</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17">
         <v>245</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17">
         <v>246</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17">
         <v>247</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17">
         <v>248</v>
       </c>
-      <c r="T17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>7</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>249</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>250</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>251</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>252</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18">
         <v>253</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18">
         <v>254</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="K18" s="1">
         <v>255</v>
       </c>
-      <c r="L18" s="1" t="n">
+      <c r="L18" s="1">
         <v>256</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18">
         <v>257</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="N18">
         <v>258</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="O18">
         <v>259</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18">
         <v>260</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18">
         <v>261</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18">
         <v>262</v>
       </c>
-      <c r="S18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>8</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0" t="n">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>263</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>264</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>265</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19">
         <v>266</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19">
         <v>267</v>
       </c>
-      <c r="K19" s="1" t="n">
+      <c r="K19" s="1">
         <v>268</v>
       </c>
-      <c r="L19" s="1" t="n">
+      <c r="L19" s="1">
         <v>269</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19">
         <v>270</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19">
         <v>271</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="O19">
         <v>272</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19">
         <v>273</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19">
         <v>274</v>
       </c>
-      <c r="R19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>9</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="0" t="n">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>275</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>276</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>277</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20">
         <v>278</v>
       </c>
-      <c r="K20" s="1" t="n">
+      <c r="K20" s="1">
         <v>279</v>
       </c>
-      <c r="L20" s="1" t="n">
+      <c r="L20" s="1">
         <v>280</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20">
         <v>281</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20">
         <v>282</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20">
         <v>283</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20">
         <v>284</v>
       </c>
-      <c r="Q20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C23">
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="n">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C25">
         <v>37</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="n">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C26">
         <v>53</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="n">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C27">
         <v>71</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="n">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C28">
         <v>89</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="n">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C29">
         <v>107</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="n">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C30">
         <v>125</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="n">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C31">
         <v>143</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="n">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C32">
         <v>161</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="n">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33">
         <v>179</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="n">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34">
         <v>197</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="n">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35">
         <v>215</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="n">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36">
         <v>233</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="n">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37">
         <v>249</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="n">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38">
         <v>263</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="n">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39">
         <v>275</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:S19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="2" style="0" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
+    <col min="2" max="19" width="4.42578125"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="n">
+    <row r="2" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="4">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="4">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="5">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="5">
         <v>6</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="4">
         <v>7</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="4">
         <v>8</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="4">
         <v>9</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="4">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="n">
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="4">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="4">
         <v>13</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="4">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="4">
         <v>15</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="5">
         <v>16</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="5">
         <v>17</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="4">
         <v>18</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="4">
         <v>19</v>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="4">
         <v>20</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="4">
         <v>21</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="P3" s="4">
         <v>22</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="n">
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="4">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="4">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="4">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="4">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="5">
         <v>29</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="5">
         <v>30</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="4">
         <v>31</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="4">
         <v>32</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="4">
         <v>33</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="4">
         <v>34</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="P4" s="4">
         <v>35</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="4">
         <v>36</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>37</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>38</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="4">
         <v>39</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="4">
         <v>40</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="4">
         <v>41</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="4">
         <v>42</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="4">
         <v>43</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="5">
         <v>44</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="5">
         <v>45</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="4">
         <v>46</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="4">
         <v>47</v>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="N5" s="4">
         <v>48</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="4">
         <v>49</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P5" s="4">
         <v>50</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="Q5" s="4">
         <v>51</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="R5" s="4">
         <v>52</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4" t="n">
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>53</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>54</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>55</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="4">
         <v>56</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="4">
         <v>57</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="4">
         <v>58</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="4">
         <v>59</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="4">
         <v>60</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="5">
         <v>61</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="5">
         <v>62</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="4">
         <v>63</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="4">
         <v>64</v>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="4">
         <v>65</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="4">
         <v>66</v>
       </c>
-      <c r="P6" s="4" t="n">
+      <c r="P6" s="4">
         <v>67</v>
       </c>
-      <c r="Q6" s="4" t="n">
+      <c r="Q6" s="4">
         <v>68</v>
       </c>
-      <c r="R6" s="4" t="n">
+      <c r="R6" s="4">
         <v>69</v>
       </c>
-      <c r="S6" s="4" t="n">
+      <c r="S6" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4" t="n">
+    <row r="7" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>71</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>72</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>73</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="4">
         <v>74</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4">
         <v>75</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="4">
         <v>76</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="4">
         <v>77</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="4">
         <v>78</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="5">
         <v>79</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="5">
         <v>80</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="4">
         <v>81</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="4">
         <v>82</v>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="N7" s="4">
         <v>83</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="4">
         <v>84</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="4">
         <v>85</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="4">
         <v>86</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="4">
         <v>87</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="n">
+    <row r="8" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
         <v>89</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>90</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>91</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="4">
         <v>92</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="4">
         <v>93</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="4">
         <v>94</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="4">
         <v>95</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="4">
         <v>96</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="5">
         <v>97</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="5">
         <v>98</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="4">
         <v>99</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="4">
         <v>100</v>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="N8" s="4">
         <v>101</v>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="O8" s="4">
         <v>102</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="P8" s="4">
         <v>103</v>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="Q8" s="4">
         <v>104</v>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="4">
         <v>105</v>
       </c>
-      <c r="S8" s="4" t="n">
+      <c r="S8" s="4">
         <v>106</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="n">
+    <row r="9" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
         <v>107</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>108</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="4">
         <v>109</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="4">
         <v>110</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="4">
         <v>111</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="4">
         <v>112</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="4">
         <v>113</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="4">
         <v>114</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="5">
         <v>115</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="5">
         <v>116</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="4">
         <v>117</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="4">
         <v>118</v>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="N9" s="4">
         <v>119</v>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="O9" s="4">
         <v>120</v>
       </c>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="4">
         <v>121</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="4">
         <v>122</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="4">
         <v>123</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="S9" s="4">
         <v>124</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="n">
+    <row r="10" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
         <v>125</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>126</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="4">
         <v>127</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="4">
         <v>128</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="4">
         <v>129</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="4">
         <v>130</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="4">
         <v>131</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="4">
         <v>132</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="5">
         <v>133</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="5">
         <v>134</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="6">
         <v>135</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="4">
         <v>136</v>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="N10" s="4">
         <v>137</v>
       </c>
-      <c r="O10" s="4" t="n">
+      <c r="O10" s="4">
         <v>138</v>
       </c>
-      <c r="P10" s="4" t="n">
+      <c r="P10" s="4">
         <v>139</v>
       </c>
-      <c r="Q10" s="4" t="n">
+      <c r="Q10" s="4">
         <v>140</v>
       </c>
-      <c r="R10" s="4" t="n">
+      <c r="R10" s="4">
         <v>141</v>
       </c>
-      <c r="S10" s="4" t="n">
+      <c r="S10" s="4">
         <v>142</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="n">
+    <row r="11" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
         <v>143</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>144</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="4">
         <v>145</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="4">
         <v>146</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="4">
         <v>147</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="4">
         <v>148</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="4">
         <v>149</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="4">
         <v>150</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="5">
         <v>151</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="5">
         <v>152</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="4">
         <v>153</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="4">
         <v>154</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="4">
         <v>155</v>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="O11" s="4">
         <v>156</v>
       </c>
-      <c r="P11" s="4" t="n">
+      <c r="P11" s="4">
         <v>157</v>
       </c>
-      <c r="Q11" s="4" t="n">
+      <c r="Q11" s="4">
         <v>158</v>
       </c>
-      <c r="R11" s="4" t="n">
+      <c r="R11" s="4">
         <v>159</v>
       </c>
-      <c r="S11" s="4" t="n">
+      <c r="S11" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="n">
+    <row r="12" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
         <v>161</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>162</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="4">
         <v>163</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="4">
         <v>164</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="4">
         <v>165</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="4">
         <v>166</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="4">
         <v>167</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="4">
         <v>168</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="5">
         <v>169</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="5">
         <v>170</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="4">
         <v>171</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="4">
         <v>172</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="N12" s="4">
         <v>173</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="4">
         <v>174</v>
       </c>
-      <c r="P12" s="4" t="n">
+      <c r="P12" s="4">
         <v>175</v>
       </c>
-      <c r="Q12" s="4" t="n">
+      <c r="Q12" s="4">
         <v>176</v>
       </c>
-      <c r="R12" s="4" t="n">
+      <c r="R12" s="4">
         <v>177</v>
       </c>
-      <c r="S12" s="4" t="n">
+      <c r="S12" s="4">
         <v>178</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="n">
+    <row r="13" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
         <v>179</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>180</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>181</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="4">
         <v>182</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="4">
         <v>183</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="4">
         <v>184</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="4">
         <v>185</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="4">
         <v>186</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="5">
         <v>187</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="5">
         <v>188</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="4">
         <v>189</v>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="M13" s="4">
         <v>190</v>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="N13" s="4">
         <v>191</v>
       </c>
-      <c r="O13" s="4" t="n">
+      <c r="O13" s="4">
         <v>192</v>
       </c>
-      <c r="P13" s="4" t="n">
+      <c r="P13" s="4">
         <v>193</v>
       </c>
-      <c r="Q13" s="4" t="n">
+      <c r="Q13" s="4">
         <v>194</v>
       </c>
-      <c r="R13" s="4" t="n">
+      <c r="R13" s="4">
         <v>195</v>
       </c>
-      <c r="S13" s="4" t="n">
+      <c r="S13" s="4">
         <v>196</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="n">
+    <row r="14" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
         <v>197</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>198</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="4">
         <v>199</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="4">
         <v>200</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="4">
         <v>201</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="4">
         <v>202</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="4">
         <v>203</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="4">
         <v>204</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="5">
         <v>205</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="5">
         <v>206</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="4">
         <v>207</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="4">
         <v>208</v>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="N14" s="4">
         <v>209</v>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="4">
         <v>210</v>
       </c>
-      <c r="P14" s="4" t="n">
+      <c r="P14" s="4">
         <v>211</v>
       </c>
-      <c r="Q14" s="4" t="n">
+      <c r="Q14" s="4">
         <v>212</v>
       </c>
-      <c r="R14" s="4" t="n">
+      <c r="R14" s="4">
         <v>213</v>
       </c>
-      <c r="S14" s="4" t="n">
+      <c r="S14" s="4">
         <v>214</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="n">
+    <row r="15" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
         <v>215</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="4">
         <v>216</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="4">
         <v>217</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="4">
         <v>218</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="4">
         <v>219</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="4">
         <v>220</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="4">
         <v>221</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="4">
         <v>222</v>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="J15" s="5">
         <v>223</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K15" s="5">
         <v>224</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="4">
         <v>225</v>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="4">
         <v>226</v>
       </c>
-      <c r="N15" s="4" t="n">
+      <c r="N15" s="4">
         <v>227</v>
       </c>
-      <c r="O15" s="4" t="n">
+      <c r="O15" s="4">
         <v>228</v>
       </c>
-      <c r="P15" s="4" t="n">
+      <c r="P15" s="4">
         <v>229</v>
       </c>
-      <c r="Q15" s="4" t="n">
+      <c r="Q15" s="4">
         <v>230</v>
       </c>
-      <c r="R15" s="4" t="n">
+      <c r="R15" s="4">
         <v>231</v>
       </c>
-      <c r="S15" s="4" t="n">
+      <c r="S15" s="4">
         <v>232</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="n">
+    <row r="16" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
         <v>233</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="4">
         <v>234</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="4">
         <v>235</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="4">
         <v>236</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="4">
         <v>237</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="4">
         <v>238</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="4">
         <v>239</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="5">
         <v>240</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="5">
         <v>241</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="4">
         <v>242</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="4">
         <v>243</v>
       </c>
-      <c r="N16" s="4" t="n">
+      <c r="N16" s="4">
         <v>244</v>
       </c>
-      <c r="O16" s="4" t="n">
+      <c r="O16" s="4">
         <v>245</v>
       </c>
-      <c r="P16" s="4" t="n">
+      <c r="P16" s="4">
         <v>246</v>
       </c>
-      <c r="Q16" s="4" t="n">
+      <c r="Q16" s="4">
         <v>247</v>
       </c>
-      <c r="R16" s="4" t="n">
+      <c r="R16" s="4">
         <v>248</v>
       </c>
-      <c r="S16" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4" t="n">
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
         <v>249</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="4">
         <v>250</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="4">
         <v>251</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="4">
         <v>252</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="4">
         <v>253</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="4">
         <v>254</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="5">
         <v>255</v>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="K17" s="5">
         <v>256</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="4">
         <v>257</v>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="M17" s="4">
         <v>258</v>
       </c>
-      <c r="N17" s="4" t="n">
+      <c r="N17" s="4">
         <v>259</v>
       </c>
-      <c r="O17" s="4" t="n">
+      <c r="O17" s="4">
         <v>260</v>
       </c>
-      <c r="P17" s="4" t="n">
+      <c r="P17" s="4">
         <v>261</v>
       </c>
-      <c r="Q17" s="4" t="n">
+      <c r="Q17" s="4">
         <v>262</v>
       </c>
-      <c r="R17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="n">
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <v>263</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="4">
         <v>264</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="4">
         <v>265</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="4">
         <v>266</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" s="4">
         <v>267</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="5">
         <v>268</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="5">
         <v>269</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="4">
         <v>270</v>
       </c>
-      <c r="M18" s="4" t="n">
+      <c r="M18" s="4">
         <v>271</v>
       </c>
-      <c r="N18" s="4" t="n">
+      <c r="N18" s="4">
         <v>272</v>
       </c>
-      <c r="O18" s="4" t="n">
+      <c r="O18" s="4">
         <v>273</v>
       </c>
-      <c r="P18" s="4" t="n">
+      <c r="P18" s="4">
         <v>274</v>
       </c>
-      <c r="Q18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4" t="n">
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <v>275</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="4">
         <v>276</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="4">
         <v>277</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="4">
         <v>278</v>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="5">
         <v>279</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="5">
         <v>280</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="4">
         <v>281</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="M19" s="4">
         <v>282</v>
       </c>
-      <c r="N19" s="4" t="n">
+      <c r="N19" s="4">
         <v>283</v>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="O19" s="4">
         <v>284</v>
       </c>
-      <c r="P19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4" t="n">
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:S19,B2:I19">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="J2:K19">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFAEA79F"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FFFFFF00"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K19">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFAEA79F"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFFFFF00"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2664,1456 +2952,1473 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:DR19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z18" activeCellId="0" sqref="Z18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="19" min="2" style="0" width="4.57894736842105"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.1417004048583"/>
+    <col min="2" max="19" width="4.5703125"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="162.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="n">
+    <row r="2" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="4">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="4">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="5">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="5">
         <v>6</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="4">
         <v>7</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="4">
         <v>8</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="4">
         <v>9</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="4">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="n">
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="4">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="4">
         <v>13</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="4">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="4">
         <v>15</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="5">
         <v>16</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="5">
         <v>17</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="4">
         <v>18</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="4">
         <v>19</v>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="4">
         <v>20</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="4">
         <v>21</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="P3" s="4">
         <v>22</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5" t="n">
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" t="str" cm="1">
+        <f t="array" ref="U3">_xlfn.CONCAT(W3:Z3&amp;", ")</f>
+        <v xml:space="preserve">133, 134, 151, 152, </v>
+      </c>
+      <c r="W3" s="5">
         <v>133</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="5">
         <v>134</v>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Y3" s="5">
         <v>151</v>
       </c>
-      <c r="Z3" s="5" t="n">
+      <c r="Z3" s="5">
         <v>152</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="n">
+    <row r="4" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="4">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="4">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="4">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="4">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="5">
         <v>29</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="5">
         <v>30</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="4">
         <v>31</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="4">
         <v>32</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="4">
         <v>33</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="4">
         <v>34</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="P4" s="4">
         <v>35</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="4">
         <v>36</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>37</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>38</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="4">
         <v>39</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="4">
         <v>40</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="4">
         <v>41</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="4">
         <v>42</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="4">
         <v>43</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="5">
         <v>44</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="5">
         <v>45</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="4">
         <v>46</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="4">
         <v>47</v>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="N5" s="4">
         <v>48</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="4">
         <v>49</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P5" s="4">
         <v>50</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="Q5" s="4">
         <v>51</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="R5" s="4">
         <v>52</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7" t="n">
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" t="str" cm="1">
+        <f t="array" ref="U5">_xlfn.CONCAT(W5:BF5&amp;", ")</f>
+        <v xml:space="preserve">95, 96, 97, 98, 99, 100, 113, 114, 115, 116, 117, 118, 131, 132, 133, 134, 135, 136, 149, 150, 151, 152, 153, 154, 167, 168, 169, 170, 171, 172, 185, 186, 187, 188, 189, 190, </v>
+      </c>
+      <c r="W5" s="7">
         <v>95</v>
       </c>
-      <c r="X5" s="7" t="n">
+      <c r="X5" s="7">
         <v>96</v>
       </c>
-      <c r="Y5" s="8" t="n">
+      <c r="Y5" s="8">
         <v>97</v>
       </c>
-      <c r="Z5" s="8" t="n">
+      <c r="Z5" s="8">
         <v>98</v>
       </c>
-      <c r="AA5" s="7" t="n">
+      <c r="AA5" s="7">
         <v>99</v>
       </c>
-      <c r="AB5" s="7" t="n">
+      <c r="AB5" s="7">
         <v>100</v>
       </c>
-      <c r="AC5" s="7" t="n">
+      <c r="AC5" s="7">
         <v>113</v>
       </c>
-      <c r="AD5" s="7" t="n">
+      <c r="AD5" s="7">
         <v>114</v>
       </c>
-      <c r="AE5" s="8" t="n">
+      <c r="AE5" s="8">
         <v>115</v>
       </c>
-      <c r="AF5" s="8" t="n">
+      <c r="AF5" s="8">
         <v>116</v>
       </c>
-      <c r="AG5" s="7" t="n">
+      <c r="AG5" s="7">
         <v>117</v>
       </c>
-      <c r="AH5" s="7" t="n">
+      <c r="AH5" s="7">
         <v>118</v>
       </c>
-      <c r="AI5" s="7" t="n">
+      <c r="AI5" s="7">
         <v>131</v>
       </c>
-      <c r="AJ5" s="7" t="n">
+      <c r="AJ5" s="7">
         <v>132</v>
       </c>
-      <c r="AK5" s="5" t="n">
+      <c r="AK5" s="5">
         <v>133</v>
       </c>
-      <c r="AL5" s="5" t="n">
+      <c r="AL5" s="5">
         <v>134</v>
       </c>
-      <c r="AM5" s="7" t="n">
+      <c r="AM5" s="7">
         <v>135</v>
       </c>
-      <c r="AN5" s="7" t="n">
+      <c r="AN5" s="7">
         <v>136</v>
       </c>
-      <c r="AO5" s="7" t="n">
+      <c r="AO5" s="7">
         <v>149</v>
       </c>
-      <c r="AP5" s="7" t="n">
+      <c r="AP5" s="7">
         <v>150</v>
       </c>
-      <c r="AQ5" s="5" t="n">
+      <c r="AQ5" s="5">
         <v>151</v>
       </c>
-      <c r="AR5" s="5" t="n">
+      <c r="AR5" s="5">
         <v>152</v>
       </c>
-      <c r="AS5" s="7" t="n">
+      <c r="AS5" s="7">
         <v>153</v>
       </c>
-      <c r="AT5" s="7" t="n">
+      <c r="AT5" s="7">
         <v>154</v>
       </c>
-      <c r="AU5" s="7" t="n">
+      <c r="AU5" s="7">
         <v>167</v>
       </c>
-      <c r="AV5" s="7" t="n">
+      <c r="AV5" s="7">
         <v>168</v>
       </c>
-      <c r="AW5" s="8" t="n">
+      <c r="AW5" s="8">
         <v>169</v>
       </c>
-      <c r="AX5" s="8" t="n">
+      <c r="AX5" s="8">
         <v>170</v>
       </c>
-      <c r="AY5" s="7" t="n">
+      <c r="AY5" s="7">
         <v>171</v>
       </c>
-      <c r="AZ5" s="7" t="n">
+      <c r="AZ5" s="7">
         <v>172</v>
       </c>
-      <c r="BA5" s="7" t="n">
+      <c r="BA5" s="7">
         <v>185</v>
       </c>
-      <c r="BB5" s="7" t="n">
+      <c r="BB5" s="7">
         <v>186</v>
       </c>
-      <c r="BC5" s="8" t="n">
+      <c r="BC5" s="8">
         <v>187</v>
       </c>
-      <c r="BD5" s="8" t="n">
+      <c r="BD5" s="8">
         <v>188</v>
       </c>
-      <c r="BE5" s="7" t="n">
+      <c r="BE5" s="7">
         <v>189</v>
       </c>
-      <c r="BF5" s="7" t="n">
+      <c r="BF5" s="7">
         <v>190</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4" t="n">
+    <row r="6" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>53</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>54</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>55</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="4">
         <v>56</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="9">
         <v>57</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="9">
         <v>58</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="9">
         <v>59</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="9">
         <v>60</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="10">
         <v>61</v>
       </c>
-      <c r="K6" s="10" t="n">
+      <c r="K6" s="10">
         <v>62</v>
       </c>
-      <c r="L6" s="9" t="n">
+      <c r="L6" s="9">
         <v>63</v>
       </c>
-      <c r="M6" s="9" t="n">
+      <c r="M6" s="9">
         <v>64</v>
       </c>
-      <c r="N6" s="9" t="n">
+      <c r="N6" s="9">
         <v>65</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="9">
         <v>66</v>
       </c>
-      <c r="P6" s="4" t="n">
+      <c r="P6" s="4">
         <v>67</v>
       </c>
-      <c r="Q6" s="4" t="n">
+      <c r="Q6" s="4">
         <v>68</v>
       </c>
-      <c r="R6" s="4" t="n">
+      <c r="R6" s="4">
         <v>69</v>
       </c>
-      <c r="S6" s="4" t="n">
+      <c r="S6" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4" t="n">
+    <row r="7" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>71</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>72</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>73</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="4">
         <v>74</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="9">
         <v>75</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="9">
         <v>76</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="9">
         <v>77</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="9">
         <v>78</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="10">
         <v>79</v>
       </c>
-      <c r="K7" s="10" t="n">
+      <c r="K7" s="10">
         <v>80</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="9">
         <v>81</v>
       </c>
-      <c r="M7" s="9" t="n">
+      <c r="M7" s="9">
         <v>82</v>
       </c>
-      <c r="N7" s="9" t="n">
+      <c r="N7" s="9">
         <v>83</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="9">
         <v>84</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="4">
         <v>85</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="4">
         <v>86</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="4">
         <v>87</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="4">
         <v>88</v>
       </c>
-      <c r="W7" s="9" t="n">
+      <c r="U7" t="str">
+        <f>_xlfn.CONCAT(W7:DR7&amp;", ")</f>
+        <v xml:space="preserve">57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, </v>
+      </c>
+      <c r="W7" s="9">
         <v>57</v>
       </c>
-      <c r="X7" s="9" t="n">
+      <c r="X7" s="9">
         <v>58</v>
       </c>
-      <c r="Y7" s="9" t="n">
+      <c r="Y7" s="9">
         <v>59</v>
       </c>
-      <c r="Z7" s="9" t="n">
+      <c r="Z7" s="9">
         <v>60</v>
       </c>
-      <c r="AA7" s="10" t="n">
+      <c r="AA7" s="10">
         <v>61</v>
       </c>
-      <c r="AB7" s="10" t="n">
+      <c r="AB7" s="10">
         <v>62</v>
       </c>
-      <c r="AC7" s="9" t="n">
+      <c r="AC7" s="9">
         <v>63</v>
       </c>
-      <c r="AD7" s="9" t="n">
+      <c r="AD7" s="9">
         <v>64</v>
       </c>
-      <c r="AE7" s="9" t="n">
+      <c r="AE7" s="9">
         <v>65</v>
       </c>
-      <c r="AF7" s="9" t="n">
+      <c r="AF7" s="9">
         <v>66</v>
       </c>
-      <c r="AG7" s="9" t="n">
+      <c r="AG7" s="9">
         <v>75</v>
       </c>
-      <c r="AH7" s="9" t="n">
+      <c r="AH7" s="9">
         <v>76</v>
       </c>
-      <c r="AI7" s="9" t="n">
+      <c r="AI7" s="9">
         <v>77</v>
       </c>
-      <c r="AJ7" s="9" t="n">
+      <c r="AJ7" s="9">
         <v>78</v>
       </c>
-      <c r="AK7" s="10" t="n">
+      <c r="AK7" s="10">
         <v>79</v>
       </c>
-      <c r="AL7" s="10" t="n">
+      <c r="AL7" s="10">
         <v>80</v>
       </c>
-      <c r="AM7" s="9" t="n">
+      <c r="AM7" s="9">
         <v>81</v>
       </c>
-      <c r="AN7" s="9" t="n">
+      <c r="AN7" s="9">
         <v>82</v>
       </c>
-      <c r="AO7" s="9" t="n">
+      <c r="AO7" s="9">
         <v>83</v>
       </c>
-      <c r="AP7" s="9" t="n">
+      <c r="AP7" s="9">
         <v>84</v>
       </c>
-      <c r="AQ7" s="9" t="n">
+      <c r="AQ7" s="9">
         <v>93</v>
       </c>
-      <c r="AR7" s="9" t="n">
+      <c r="AR7" s="9">
         <v>94</v>
       </c>
-      <c r="AS7" s="7" t="n">
+      <c r="AS7" s="7">
         <v>95</v>
       </c>
-      <c r="AT7" s="7" t="n">
+      <c r="AT7" s="7">
         <v>96</v>
       </c>
-      <c r="AU7" s="8" t="n">
+      <c r="AU7" s="8">
         <v>97</v>
       </c>
-      <c r="AV7" s="8" t="n">
+      <c r="AV7" s="8">
         <v>98</v>
       </c>
-      <c r="AW7" s="7" t="n">
+      <c r="AW7" s="7">
         <v>99</v>
       </c>
-      <c r="AX7" s="7" t="n">
+      <c r="AX7" s="7">
         <v>100</v>
       </c>
-      <c r="AY7" s="9" t="n">
+      <c r="AY7" s="9">
         <v>101</v>
       </c>
-      <c r="AZ7" s="9" t="n">
+      <c r="AZ7" s="9">
         <v>102</v>
       </c>
-      <c r="BA7" s="9" t="n">
+      <c r="BA7" s="9">
         <v>111</v>
       </c>
-      <c r="BB7" s="9" t="n">
+      <c r="BB7" s="9">
         <v>112</v>
       </c>
-      <c r="BC7" s="7" t="n">
+      <c r="BC7" s="7">
         <v>113</v>
       </c>
-      <c r="BD7" s="7" t="n">
+      <c r="BD7" s="7">
         <v>114</v>
       </c>
-      <c r="BE7" s="8" t="n">
+      <c r="BE7" s="8">
         <v>115</v>
       </c>
-      <c r="BF7" s="8" t="n">
+      <c r="BF7" s="8">
         <v>116</v>
       </c>
-      <c r="BG7" s="7" t="n">
+      <c r="BG7" s="7">
         <v>117</v>
       </c>
-      <c r="BH7" s="7" t="n">
+      <c r="BH7" s="7">
         <v>118</v>
       </c>
-      <c r="BI7" s="9" t="n">
+      <c r="BI7" s="9">
         <v>119</v>
       </c>
-      <c r="BJ7" s="9" t="n">
+      <c r="BJ7" s="9">
         <v>120</v>
       </c>
-      <c r="BK7" s="9" t="n">
+      <c r="BK7" s="9">
         <v>129</v>
       </c>
-      <c r="BL7" s="9" t="n">
+      <c r="BL7" s="9">
         <v>130</v>
       </c>
-      <c r="BM7" s="7" t="n">
+      <c r="BM7" s="7">
         <v>131</v>
       </c>
-      <c r="BN7" s="7" t="n">
+      <c r="BN7" s="7">
         <v>132</v>
       </c>
-      <c r="BO7" s="5" t="n">
+      <c r="BO7" s="5">
         <v>133</v>
       </c>
-      <c r="BP7" s="5" t="n">
+      <c r="BP7" s="5">
         <v>134</v>
       </c>
-      <c r="BQ7" s="7" t="n">
+      <c r="BQ7" s="7">
         <v>135</v>
       </c>
-      <c r="BR7" s="7" t="n">
+      <c r="BR7" s="7">
         <v>136</v>
       </c>
-      <c r="BS7" s="9" t="n">
+      <c r="BS7" s="9">
         <v>137</v>
       </c>
-      <c r="BT7" s="9" t="n">
+      <c r="BT7" s="9">
         <v>138</v>
       </c>
-      <c r="BU7" s="9" t="n">
+      <c r="BU7" s="9">
         <v>147</v>
       </c>
-      <c r="BV7" s="9" t="n">
+      <c r="BV7" s="9">
         <v>148</v>
       </c>
-      <c r="BW7" s="7" t="n">
+      <c r="BW7" s="7">
         <v>149</v>
       </c>
-      <c r="BX7" s="7" t="n">
+      <c r="BX7" s="7">
         <v>150</v>
       </c>
-      <c r="BY7" s="5" t="n">
+      <c r="BY7" s="5">
         <v>151</v>
       </c>
-      <c r="BZ7" s="5" t="n">
+      <c r="BZ7" s="5">
         <v>152</v>
       </c>
-      <c r="CA7" s="7" t="n">
+      <c r="CA7" s="7">
         <v>153</v>
       </c>
-      <c r="CB7" s="7" t="n">
+      <c r="CB7" s="7">
         <v>154</v>
       </c>
-      <c r="CC7" s="9" t="n">
+      <c r="CC7" s="9">
         <v>155</v>
       </c>
-      <c r="CD7" s="9" t="n">
+      <c r="CD7" s="9">
         <v>156</v>
       </c>
-      <c r="CE7" s="9" t="n">
+      <c r="CE7" s="9">
         <v>165</v>
       </c>
-      <c r="CF7" s="9" t="n">
+      <c r="CF7" s="9">
         <v>166</v>
       </c>
-      <c r="CG7" s="7" t="n">
+      <c r="CG7" s="7">
         <v>167</v>
       </c>
-      <c r="CH7" s="7" t="n">
+      <c r="CH7" s="7">
         <v>168</v>
       </c>
-      <c r="CI7" s="8" t="n">
+      <c r="CI7" s="8">
         <v>169</v>
       </c>
-      <c r="CJ7" s="8" t="n">
+      <c r="CJ7" s="8">
         <v>170</v>
       </c>
-      <c r="CK7" s="7" t="n">
+      <c r="CK7" s="7">
         <v>171</v>
       </c>
-      <c r="CL7" s="7" t="n">
+      <c r="CL7" s="7">
         <v>172</v>
       </c>
-      <c r="CM7" s="9" t="n">
+      <c r="CM7" s="9">
         <v>173</v>
       </c>
-      <c r="CN7" s="9" t="n">
+      <c r="CN7" s="9">
         <v>174</v>
       </c>
-      <c r="CO7" s="9" t="n">
+      <c r="CO7" s="9">
         <v>183</v>
       </c>
-      <c r="CP7" s="9" t="n">
+      <c r="CP7" s="9">
         <v>184</v>
       </c>
-      <c r="CQ7" s="7" t="n">
+      <c r="CQ7" s="7">
         <v>185</v>
       </c>
-      <c r="CR7" s="7" t="n">
+      <c r="CR7" s="7">
         <v>186</v>
       </c>
-      <c r="CS7" s="8" t="n">
+      <c r="CS7" s="8">
         <v>187</v>
       </c>
-      <c r="CT7" s="8" t="n">
+      <c r="CT7" s="8">
         <v>188</v>
       </c>
-      <c r="CU7" s="7" t="n">
+      <c r="CU7" s="7">
         <v>189</v>
       </c>
-      <c r="CV7" s="7" t="n">
+      <c r="CV7" s="7">
         <v>190</v>
       </c>
-      <c r="CW7" s="9" t="n">
+      <c r="CW7" s="9">
         <v>191</v>
       </c>
-      <c r="CX7" s="9" t="n">
+      <c r="CX7" s="9">
         <v>192</v>
       </c>
-      <c r="CY7" s="9" t="n">
+      <c r="CY7" s="9">
         <v>201</v>
       </c>
-      <c r="CZ7" s="9" t="n">
+      <c r="CZ7" s="9">
         <v>202</v>
       </c>
-      <c r="DA7" s="9" t="n">
+      <c r="DA7" s="9">
         <v>203</v>
       </c>
-      <c r="DB7" s="9" t="n">
+      <c r="DB7" s="9">
         <v>204</v>
       </c>
-      <c r="DC7" s="10" t="n">
+      <c r="DC7" s="10">
         <v>205</v>
       </c>
-      <c r="DD7" s="10" t="n">
+      <c r="DD7" s="10">
         <v>206</v>
       </c>
-      <c r="DE7" s="9" t="n">
+      <c r="DE7" s="9">
         <v>207</v>
       </c>
-      <c r="DF7" s="9" t="n">
+      <c r="DF7" s="9">
         <v>208</v>
       </c>
-      <c r="DG7" s="9" t="n">
+      <c r="DG7" s="9">
         <v>209</v>
       </c>
-      <c r="DH7" s="9" t="n">
+      <c r="DH7" s="9">
         <v>210</v>
       </c>
-      <c r="DI7" s="9" t="n">
+      <c r="DI7" s="9">
         <v>219</v>
       </c>
-      <c r="DJ7" s="9" t="n">
+      <c r="DJ7" s="9">
         <v>220</v>
       </c>
-      <c r="DK7" s="9" t="n">
+      <c r="DK7" s="9">
         <v>221</v>
       </c>
-      <c r="DL7" s="9" t="n">
+      <c r="DL7" s="9">
         <v>222</v>
       </c>
-      <c r="DM7" s="10" t="n">
+      <c r="DM7" s="10">
         <v>223</v>
       </c>
-      <c r="DN7" s="10" t="n">
+      <c r="DN7" s="10">
         <v>224</v>
       </c>
-      <c r="DO7" s="9" t="n">
+      <c r="DO7" s="9">
         <v>225</v>
       </c>
-      <c r="DP7" s="9" t="n">
+      <c r="DP7" s="9">
         <v>226</v>
       </c>
-      <c r="DQ7" s="9" t="n">
+      <c r="DQ7" s="9">
         <v>227</v>
       </c>
-      <c r="DR7" s="9" t="n">
+      <c r="DR7" s="9">
         <v>228</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="n">
+    <row r="8" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
         <v>89</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>90</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>91</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="4">
         <v>92</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="9">
         <v>93</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="9">
         <v>94</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="7">
         <v>95</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="7">
         <v>96</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="8">
         <v>97</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="8">
         <v>98</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="L8" s="7">
         <v>99</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="M8" s="7">
         <v>100</v>
       </c>
-      <c r="N8" s="9" t="n">
+      <c r="N8" s="9">
         <v>101</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="O8" s="9">
         <v>102</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="P8" s="4">
         <v>103</v>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="Q8" s="4">
         <v>104</v>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="4">
         <v>105</v>
       </c>
-      <c r="S8" s="4" t="n">
+      <c r="S8" s="4">
         <v>106</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="n">
+    <row r="9" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
         <v>107</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>108</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="4">
         <v>109</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="4">
         <v>110</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="9">
         <v>111</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="9">
         <v>112</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="7">
         <v>113</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="7">
         <v>114</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="8">
         <v>115</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="8">
         <v>116</v>
       </c>
-      <c r="L9" s="7" t="n">
+      <c r="L9" s="7">
         <v>117</v>
       </c>
-      <c r="M9" s="7" t="n">
+      <c r="M9" s="7">
         <v>118</v>
       </c>
-      <c r="N9" s="9" t="n">
+      <c r="N9" s="9">
         <v>119</v>
       </c>
-      <c r="O9" s="9" t="n">
+      <c r="O9" s="9">
         <v>120</v>
       </c>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="4">
         <v>121</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="4">
         <v>122</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="4">
         <v>123</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="S9" s="4">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="n">
+      <c r="U9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
         <v>125</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="6">
         <v>126</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="6">
         <v>127</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>128</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="9">
         <v>129</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="9">
         <v>130</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="7">
         <v>131</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="7">
         <v>132</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="5">
         <v>133</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="5">
         <v>134</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="L10" s="7">
         <v>135</v>
       </c>
-      <c r="M10" s="7" t="n">
+      <c r="M10" s="7">
         <v>136</v>
       </c>
-      <c r="N10" s="9" t="n">
+      <c r="N10" s="9">
         <v>137</v>
       </c>
-      <c r="O10" s="9" t="n">
+      <c r="O10" s="9">
         <v>138</v>
       </c>
-      <c r="P10" s="6" t="n">
+      <c r="P10" s="6">
         <v>139</v>
       </c>
-      <c r="Q10" s="6" t="n">
+      <c r="Q10" s="6">
         <v>140</v>
       </c>
-      <c r="R10" s="6" t="n">
+      <c r="R10" s="6">
         <v>141</v>
       </c>
-      <c r="S10" s="6" t="n">
+      <c r="S10" s="6">
         <v>142</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="n">
+    <row r="11" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
         <v>143</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>144</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6">
         <v>145</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="6">
         <v>146</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="9">
         <v>147</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="9">
         <v>148</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="7">
         <v>149</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="7">
         <v>150</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="5">
         <v>151</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="5">
         <v>152</v>
       </c>
-      <c r="L11" s="7" t="n">
+      <c r="L11" s="7">
         <v>153</v>
       </c>
-      <c r="M11" s="7" t="n">
+      <c r="M11" s="7">
         <v>154</v>
       </c>
-      <c r="N11" s="9" t="n">
+      <c r="N11" s="9">
         <v>155</v>
       </c>
-      <c r="O11" s="9" t="n">
+      <c r="O11" s="9">
         <v>156</v>
       </c>
-      <c r="P11" s="6" t="n">
+      <c r="P11" s="6">
         <v>157</v>
       </c>
-      <c r="Q11" s="6" t="n">
+      <c r="Q11" s="6">
         <v>158</v>
       </c>
-      <c r="R11" s="6" t="n">
+      <c r="R11" s="6">
         <v>159</v>
       </c>
-      <c r="S11" s="6" t="n">
+      <c r="S11" s="6">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="n">
+      <c r="U11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
         <v>161</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>162</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="4">
         <v>163</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="4">
         <v>164</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="9">
         <v>165</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="9">
         <v>166</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="7">
         <v>167</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="7">
         <v>168</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="8">
         <v>169</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="8">
         <v>170</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="L12" s="7">
         <v>171</v>
       </c>
-      <c r="M12" s="7" t="n">
+      <c r="M12" s="7">
         <v>172</v>
       </c>
-      <c r="N12" s="9" t="n">
+      <c r="N12" s="9">
         <v>173</v>
       </c>
-      <c r="O12" s="9" t="n">
+      <c r="O12" s="9">
         <v>174</v>
       </c>
-      <c r="P12" s="4" t="n">
+      <c r="P12" s="4">
         <v>175</v>
       </c>
-      <c r="Q12" s="4" t="n">
+      <c r="Q12" s="4">
         <v>176</v>
       </c>
-      <c r="R12" s="4" t="n">
+      <c r="R12" s="4">
         <v>177</v>
       </c>
-      <c r="S12" s="4" t="n">
+      <c r="S12" s="4">
         <v>178</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="n">
+    <row r="13" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
         <v>179</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>180</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>181</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="4">
         <v>182</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="9">
         <v>183</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="9">
         <v>184</v>
       </c>
-      <c r="H13" s="7" t="n">
+      <c r="H13" s="7">
         <v>185</v>
       </c>
-      <c r="I13" s="7" t="n">
+      <c r="I13" s="7">
         <v>186</v>
       </c>
-      <c r="J13" s="8" t="n">
+      <c r="J13" s="8">
         <v>187</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="8">
         <v>188</v>
       </c>
-      <c r="L13" s="7" t="n">
+      <c r="L13" s="7">
         <v>189</v>
       </c>
-      <c r="M13" s="7" t="n">
+      <c r="M13" s="7">
         <v>190</v>
       </c>
-      <c r="N13" s="9" t="n">
+      <c r="N13" s="9">
         <v>191</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="O13" s="9">
         <v>192</v>
       </c>
-      <c r="P13" s="4" t="n">
+      <c r="P13" s="4">
         <v>193</v>
       </c>
-      <c r="Q13" s="4" t="n">
+      <c r="Q13" s="4">
         <v>194</v>
       </c>
-      <c r="R13" s="4" t="n">
+      <c r="R13" s="4">
         <v>195</v>
       </c>
-      <c r="S13" s="4" t="n">
+      <c r="S13" s="4">
         <v>196</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="n">
+      <c r="U13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
         <v>197</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>198</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="4">
         <v>199</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="4">
         <v>200</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="9">
         <v>201</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="9">
         <v>202</v>
       </c>
-      <c r="H14" s="9" t="n">
+      <c r="H14" s="9">
         <v>203</v>
       </c>
-      <c r="I14" s="9" t="n">
+      <c r="I14" s="9">
         <v>204</v>
       </c>
-      <c r="J14" s="10" t="n">
+      <c r="J14" s="10">
         <v>205</v>
       </c>
-      <c r="K14" s="10" t="n">
+      <c r="K14" s="10">
         <v>206</v>
       </c>
-      <c r="L14" s="9" t="n">
+      <c r="L14" s="9">
         <v>207</v>
       </c>
-      <c r="M14" s="9" t="n">
+      <c r="M14" s="9">
         <v>208</v>
       </c>
-      <c r="N14" s="9" t="n">
+      <c r="N14" s="9">
         <v>209</v>
       </c>
-      <c r="O14" s="9" t="n">
+      <c r="O14" s="9">
         <v>210</v>
       </c>
-      <c r="P14" s="4" t="n">
+      <c r="P14" s="4">
         <v>211</v>
       </c>
-      <c r="Q14" s="4" t="n">
+      <c r="Q14" s="4">
         <v>212</v>
       </c>
-      <c r="R14" s="4" t="n">
+      <c r="R14" s="4">
         <v>213</v>
       </c>
-      <c r="S14" s="4" t="n">
+      <c r="S14" s="4">
         <v>214</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="n">
+    <row r="15" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
         <v>215</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="4">
         <v>216</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="4">
         <v>217</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="4">
         <v>218</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="9">
         <v>219</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="9">
         <v>220</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="9">
         <v>221</v>
       </c>
-      <c r="I15" s="9" t="n">
+      <c r="I15" s="9">
         <v>222</v>
       </c>
-      <c r="J15" s="10" t="n">
+      <c r="J15" s="10">
         <v>223</v>
       </c>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="10">
         <v>224</v>
       </c>
-      <c r="L15" s="9" t="n">
+      <c r="L15" s="9">
         <v>225</v>
       </c>
-      <c r="M15" s="9" t="n">
+      <c r="M15" s="9">
         <v>226</v>
       </c>
-      <c r="N15" s="9" t="n">
+      <c r="N15" s="9">
         <v>227</v>
       </c>
-      <c r="O15" s="9" t="n">
+      <c r="O15" s="9">
         <v>228</v>
       </c>
-      <c r="P15" s="4" t="n">
+      <c r="P15" s="4">
         <v>229</v>
       </c>
-      <c r="Q15" s="4" t="n">
+      <c r="Q15" s="4">
         <v>230</v>
       </c>
-      <c r="R15" s="4" t="n">
+      <c r="R15" s="4">
         <v>231</v>
       </c>
-      <c r="S15" s="4" t="n">
+      <c r="S15" s="4">
         <v>232</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="n">
+    <row r="16" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
         <v>233</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="4">
         <v>234</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="4">
         <v>235</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="4">
         <v>236</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="4">
         <v>237</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="4">
         <v>238</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="4">
         <v>239</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="5">
         <v>240</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="5">
         <v>241</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="4">
         <v>242</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="4">
         <v>243</v>
       </c>
-      <c r="N16" s="4" t="n">
+      <c r="N16" s="4">
         <v>244</v>
       </c>
-      <c r="O16" s="4" t="n">
+      <c r="O16" s="4">
         <v>245</v>
       </c>
-      <c r="P16" s="4" t="n">
+      <c r="P16" s="4">
         <v>246</v>
       </c>
-      <c r="Q16" s="4" t="n">
+      <c r="Q16" s="4">
         <v>247</v>
       </c>
-      <c r="R16" s="4" t="n">
+      <c r="R16" s="4">
         <v>248</v>
       </c>
-      <c r="S16" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4" t="n">
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
         <v>249</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="4">
         <v>250</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="4">
         <v>251</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="4">
         <v>252</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="4">
         <v>253</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="4">
         <v>254</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="5">
         <v>255</v>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="K17" s="5">
         <v>256</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="4">
         <v>257</v>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="M17" s="4">
         <v>258</v>
       </c>
-      <c r="N17" s="4" t="n">
+      <c r="N17" s="4">
         <v>259</v>
       </c>
-      <c r="O17" s="4" t="n">
+      <c r="O17" s="4">
         <v>260</v>
       </c>
-      <c r="P17" s="4" t="n">
+      <c r="P17" s="4">
         <v>261</v>
       </c>
-      <c r="Q17" s="4" t="n">
+      <c r="Q17" s="4">
         <v>262</v>
       </c>
-      <c r="R17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="n">
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <v>263</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="4">
         <v>264</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="4">
         <v>265</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="4">
         <v>266</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" s="4">
         <v>267</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="5">
         <v>268</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="5">
         <v>269</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="4">
         <v>270</v>
       </c>
-      <c r="M18" s="4" t="n">
+      <c r="M18" s="4">
         <v>271</v>
       </c>
-      <c r="N18" s="4" t="n">
+      <c r="N18" s="4">
         <v>272</v>
       </c>
-      <c r="O18" s="4" t="n">
+      <c r="O18" s="4">
         <v>273</v>
       </c>
-      <c r="P18" s="4" t="n">
+      <c r="P18" s="4">
         <v>274</v>
       </c>
-      <c r="Q18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4" t="n">
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <v>275</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="4">
         <v>276</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="4">
         <v>277</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="4">
         <v>278</v>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="5">
         <v>279</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="5">
         <v>280</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="4">
         <v>281</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="M19" s="4">
         <v>282</v>
       </c>
-      <c r="N19" s="4" t="n">
+      <c r="N19" s="4">
         <v>283</v>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="O19" s="4">
         <v>284</v>
       </c>
-      <c r="P19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4" t="n">
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Excel/channel_numbers.xlsx
+++ b/Excel/channel_numbers.xlsx
@@ -1,32 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huw\parmec_agr_ml_surrogate\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A9CC78-BF65-4117-BA0D-0DBFD97ED672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="989" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="numbers" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="numbers" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -34,45 +21,38 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>133, 134, 151, 152</t>
+    <t xml:space="preserve">133, 134, 151, 152</t>
   </si>
   <si>
-    <t>95, 96, 97, 98, 99, 100, 113, 114, 115, 116, 117, 118, 131, 132, 133, 134, 135, 136, 149, 150, 151, 152, 153, 154, 167, 168, 169, 170, 171, 172, 185, 186, 187, 188, 189, 190</t>
+    <t xml:space="preserve">95, 96, 97, 98, 99, 100, 113, 114, 115, 116, 117, 118, 131, 132, 133, 134, 135, 136, 149, 150, 151, 152, 153, 154, 167, 168, 169, 170, 171, 172, 185, 186, 187, 188, 189, 190</t>
   </si>
   <si>
-    <t>57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228</t>
+    <t xml:space="preserve">57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inner Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Core Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Core Channels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -81,7 +61,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -89,7 +84,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,7 +106,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF33"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF66FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF00"/>
+        <bgColor rgb="FF99FF33"/>
       </patternFill>
     </fill>
     <fill>
@@ -120,87 +127,161 @@
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF66FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -237,7 +318,7 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF3399FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99FF33"/>
       <rgbColor rgb="FFFFCC00"/>
@@ -253,2698 +334,2401 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="B2:S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="10" width="8.5703125"/>
-    <col min="11" max="12" width="8.5703125" style="1"/>
-    <col min="13" max="1025" width="8.5703125"/>
+    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="2" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C2" s="2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="2" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="Q3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="R4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="S5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="T6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="0" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="0" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="0" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="0" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="1" t="n">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="1" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="0" t="n">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="0" t="n">
         <v>193</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="0" t="n">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0" t="n">
         <v>209</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="0" t="n">
         <v>213</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="0" t="n">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>216</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="0" t="n">
         <v>222</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0" t="n">
         <v>226</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="0" t="n">
         <v>227</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="0" t="n">
         <v>228</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="0" t="n">
         <v>229</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="0" t="n">
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <v>233</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>234</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>235</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0" t="n">
         <v>236</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0" t="n">
         <v>237</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0" t="n">
         <v>238</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="0" t="n">
         <v>239</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="0" t="n">
         <v>242</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0" t="n">
         <v>243</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="0" t="n">
         <v>244</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="0" t="n">
         <v>246</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="0" t="n">
         <v>248</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="T17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <v>249</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0" t="n">
         <v>251</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0" t="n">
         <v>253</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="0" t="n">
         <v>254</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="0" t="n">
         <v>257</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="0" t="n">
         <v>258</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="0" t="n">
         <v>259</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="0" t="n">
         <v>261</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="S18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0" t="n">
         <v>264</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0" t="n">
         <v>265</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0" t="n">
         <v>266</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="0" t="n">
         <v>267</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="0" t="n">
         <v>273</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="0" t="n">
         <v>274</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="R19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0" t="n">
         <v>277</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="0" t="n">
         <v>278</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="0" t="n">
         <v>283</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="0" t="n">
         <v>284</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C23">
+      <c r="Q20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C27">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C28">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C29">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C30">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C31">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C32">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="n">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="n">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="n">
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="n">
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="n">
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="n">
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="n">
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="n">
         <v>275</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:S19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="19" width="4.42578125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="19" min="2" style="0" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
+    <row r="2" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="P2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="Q3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="4" t="n">
         <v>46</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="4" t="n">
         <v>51</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="n">
         <v>53</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="4" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+    <row r="7" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="4" t="n">
         <v>78</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="5" t="n">
         <v>79</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="4" t="n">
         <v>83</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="4" t="n">
         <v>86</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="4" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+    <row r="8" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>91</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="5" t="n">
         <v>97</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="5" t="n">
         <v>98</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="4" t="n">
         <v>102</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="4" t="n">
         <v>103</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="4" t="n">
         <v>105</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="4" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+    <row r="9" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="n">
         <v>107</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="4" t="n">
         <v>108</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>109</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="4" t="n">
         <v>111</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="4" t="n">
         <v>112</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="4" t="n">
         <v>113</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="4" t="n">
         <v>114</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="5" t="n">
         <v>115</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="5" t="n">
         <v>116</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="4" t="n">
         <v>117</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="4" t="n">
         <v>118</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="4" t="n">
         <v>119</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="4" t="n">
         <v>121</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="4" t="n">
         <v>122</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="4" t="n">
         <v>123</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="4" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+    <row r="10" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="n">
         <v>125</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="n">
         <v>126</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>127</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="n">
         <v>128</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="4" t="n">
         <v>129</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="4" t="n">
         <v>131</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="4" t="n">
         <v>132</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="5" t="n">
         <v>133</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="5" t="n">
         <v>134</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="6" t="n">
         <v>135</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="4" t="n">
         <v>136</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="4" t="n">
         <v>137</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="4" t="n">
         <v>138</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="4" t="n">
         <v>139</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="4" t="n">
         <v>141</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="4" t="n">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+    <row r="11" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="n">
         <v>143</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="n">
         <v>144</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>145</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="n">
         <v>146</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="4" t="n">
         <v>147</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="4" t="n">
         <v>148</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="4" t="n">
         <v>149</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="5" t="n">
         <v>151</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="5" t="n">
         <v>152</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="4" t="n">
         <v>153</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="4" t="n">
         <v>154</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="4" t="n">
         <v>155</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="4" t="n">
         <v>156</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="4" t="n">
         <v>157</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="4" t="n">
         <v>158</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="4" t="n">
         <v>159</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="4" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+    <row r="12" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="n">
         <v>161</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4" t="n">
         <v>162</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>163</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="n">
         <v>164</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="4" t="n">
         <v>165</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="4" t="n">
         <v>166</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="4" t="n">
         <v>167</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="4" t="n">
         <v>168</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="5" t="n">
         <v>169</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="5" t="n">
         <v>170</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="4" t="n">
         <v>171</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="4" t="n">
         <v>172</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="4" t="n">
         <v>173</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="4" t="n">
         <v>174</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="4" t="n">
         <v>175</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="4" t="n">
         <v>176</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="4" t="n">
         <v>177</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="4" t="n">
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+    <row r="13" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="n">
         <v>179</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="n">
         <v>181</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="n">
         <v>182</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="4" t="n">
         <v>183</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="4" t="n">
         <v>184</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="4" t="n">
         <v>185</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="4" t="n">
         <v>186</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="5" t="n">
         <v>187</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="5" t="n">
         <v>188</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="4" t="n">
         <v>189</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="4" t="n">
         <v>190</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="4" t="n">
         <v>191</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="4" t="n">
         <v>192</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="4" t="n">
         <v>193</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="4" t="n">
         <v>194</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="4" t="n">
         <v>195</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="4" t="n">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+    <row r="14" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="n">
         <v>197</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="4" t="n">
         <v>198</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>199</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="4" t="n">
         <v>201</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="4" t="n">
         <v>202</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="4" t="n">
         <v>203</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="4" t="n">
         <v>204</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="5" t="n">
         <v>205</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="5" t="n">
         <v>206</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="4" t="n">
         <v>207</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="4" t="n">
         <v>208</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="4" t="n">
         <v>209</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="4" t="n">
         <v>210</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="4" t="n">
         <v>211</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="4" t="n">
         <v>212</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="4" t="n">
         <v>213</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="4" t="n">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+    <row r="15" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="n">
         <v>215</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="4" t="n">
         <v>216</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="n">
         <v>217</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="n">
         <v>218</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="4" t="n">
         <v>219</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="4" t="n">
         <v>220</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="4" t="n">
         <v>221</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="4" t="n">
         <v>222</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="5" t="n">
         <v>223</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="5" t="n">
         <v>224</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="4" t="n">
         <v>225</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="4" t="n">
         <v>226</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="4" t="n">
         <v>227</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="4" t="n">
         <v>228</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="4" t="n">
         <v>229</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="4" t="n">
         <v>230</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="4" t="n">
         <v>231</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="4" t="n">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
+    <row r="16" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="n">
         <v>233</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="4" t="n">
         <v>234</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="n">
         <v>235</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="4" t="n">
         <v>236</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="4" t="n">
         <v>237</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="4" t="n">
         <v>238</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="4" t="n">
         <v>239</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="5" t="n">
         <v>240</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="5" t="n">
         <v>241</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="4" t="n">
         <v>242</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="4" t="n">
         <v>243</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="4" t="n">
         <v>244</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="4" t="n">
         <v>245</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="4" t="n">
         <v>246</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="4" t="n">
         <v>247</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="4" t="n">
         <v>248</v>
       </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="S16" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="n">
         <v>249</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="4" t="n">
         <v>251</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="4" t="n">
         <v>252</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="4" t="n">
         <v>253</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="4" t="n">
         <v>254</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="5" t="n">
         <v>255</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="5" t="n">
         <v>256</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="4" t="n">
         <v>257</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="4" t="n">
         <v>258</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="4" t="n">
         <v>259</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="4" t="n">
         <v>260</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="4" t="n">
         <v>261</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="4" t="n">
         <v>262</v>
       </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="R17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="n">
         <v>263</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="4" t="n">
         <v>264</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="4" t="n">
         <v>265</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="4" t="n">
         <v>266</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="4" t="n">
         <v>267</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="5" t="n">
         <v>268</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="5" t="n">
         <v>269</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="4" t="n">
         <v>270</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="4" t="n">
         <v>271</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="4" t="n">
         <v>272</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="4" t="n">
         <v>273</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="4" t="n">
         <v>274</v>
       </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="Q18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="n">
         <v>275</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="4" t="n">
         <v>276</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="4" t="n">
         <v>277</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="4" t="n">
         <v>278</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="5" t="n">
         <v>279</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="5" t="n">
         <v>280</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="4" t="n">
         <v>281</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="4" t="n">
         <v>282</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="4" t="n">
         <v>283</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="4" t="n">
         <v>284</v>
       </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
+      <c r="P19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:K19">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFAEA79F"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FFFFFF00"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2952,1473 +2736,1515 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:DR19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:DR21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="19" width="4.5703125"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="22" width="162.7109375" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="19" min="2" style="0" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="165.607287449393"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
+    <row r="2" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="P2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" t="str" cm="1">
-        <f t="array" ref="U3">_xlfn.CONCAT(W3:Z3&amp;", ")</f>
-        <v xml:space="preserve">133, 134, 151, 152, </v>
-      </c>
-      <c r="W3" s="5">
+      <c r="Q3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="0" t="e">
+        <f aca="false" t="array" ref="U3:U3">_xlfn.concat(W3:Z3&amp;", ")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W3" s="5" t="n">
         <v>133</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="5" t="n">
         <v>134</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="5" t="n">
         <v>151</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="5" t="n">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+    <row r="4" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="7" t="n">
         <v>33</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="7" t="n">
         <v>34</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7" t="n">
         <v>38</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="10" t="n">
         <v>44</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="7" t="n">
         <v>51</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="7" t="n">
         <v>52</v>
       </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" t="str" cm="1">
-        <f t="array" ref="U5">_xlfn.CONCAT(W5:BF5&amp;", ")</f>
-        <v xml:space="preserve">95, 96, 97, 98, 99, 100, 113, 114, 115, 116, 117, 118, 131, 132, 133, 134, 135, 136, 149, 150, 151, 152, 153, 154, 167, 168, 169, 170, 171, 172, 185, 186, 187, 188, 189, 190, </v>
-      </c>
-      <c r="W5" s="7">
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="0" t="e">
+        <f aca="false" t="array" ref="U5:U5">_xlfn.concat(W5:BF5&amp;", ")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W5" s="11" t="n">
         <v>95</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="11" t="n">
         <v>96</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="12" t="n">
         <v>97</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="12" t="n">
         <v>98</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="11" t="n">
         <v>99</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="11" t="n">
         <v>113</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="11" t="n">
         <v>114</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="12" t="n">
         <v>115</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="12" t="n">
         <v>116</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AG5" s="11" t="n">
         <v>117</v>
       </c>
-      <c r="AH5" s="7">
+      <c r="AH5" s="11" t="n">
         <v>118</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="AI5" s="11" t="n">
         <v>131</v>
       </c>
-      <c r="AJ5" s="7">
+      <c r="AJ5" s="11" t="n">
         <v>132</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AK5" s="5" t="n">
         <v>133</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AL5" s="5" t="n">
         <v>134</v>
       </c>
-      <c r="AM5" s="7">
+      <c r="AM5" s="11" t="n">
         <v>135</v>
       </c>
-      <c r="AN5" s="7">
+      <c r="AN5" s="11" t="n">
         <v>136</v>
       </c>
-      <c r="AO5" s="7">
+      <c r="AO5" s="11" t="n">
         <v>149</v>
       </c>
-      <c r="AP5" s="7">
+      <c r="AP5" s="11" t="n">
         <v>150</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AQ5" s="5" t="n">
         <v>151</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AR5" s="5" t="n">
         <v>152</v>
       </c>
-      <c r="AS5" s="7">
+      <c r="AS5" s="11" t="n">
         <v>153</v>
       </c>
-      <c r="AT5" s="7">
+      <c r="AT5" s="11" t="n">
         <v>154</v>
       </c>
-      <c r="AU5" s="7">
+      <c r="AU5" s="11" t="n">
         <v>167</v>
       </c>
-      <c r="AV5" s="7">
+      <c r="AV5" s="11" t="n">
         <v>168</v>
       </c>
-      <c r="AW5" s="8">
+      <c r="AW5" s="12" t="n">
         <v>169</v>
       </c>
-      <c r="AX5" s="8">
+      <c r="AX5" s="12" t="n">
         <v>170</v>
       </c>
-      <c r="AY5" s="7">
+      <c r="AY5" s="11" t="n">
         <v>171</v>
       </c>
-      <c r="AZ5" s="7">
+      <c r="AZ5" s="11" t="n">
         <v>172</v>
       </c>
-      <c r="BA5" s="7">
+      <c r="BA5" s="11" t="n">
         <v>185</v>
       </c>
-      <c r="BB5" s="7">
+      <c r="BB5" s="11" t="n">
         <v>186</v>
       </c>
-      <c r="BC5" s="8">
+      <c r="BC5" s="12" t="n">
         <v>187</v>
       </c>
-      <c r="BD5" s="8">
+      <c r="BD5" s="12" t="n">
         <v>188</v>
       </c>
-      <c r="BE5" s="7">
+      <c r="BE5" s="11" t="n">
         <v>189</v>
       </c>
-      <c r="BF5" s="7">
+      <c r="BF5" s="11" t="n">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+    <row r="6" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="n">
         <v>53</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7" t="n">
         <v>54</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7" t="n">
         <v>55</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="9" t="n">
         <v>57</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="9" t="n">
         <v>59</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="10" t="n">
         <v>61</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="10" t="n">
         <v>62</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="9" t="n">
         <v>63</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="9" t="n">
         <v>66</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="9" t="n">
         <v>67</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="7" t="n">
         <v>68</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="7" t="n">
         <v>69</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="7" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+    <row r="7" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="n">
         <v>71</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7" t="n">
         <v>72</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7" t="n">
         <v>73</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="9" t="n">
         <v>74</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="11" t="n">
         <v>77</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="11" t="n">
         <v>78</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="12" t="n">
         <v>79</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="12" t="n">
         <v>80</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="11" t="n">
         <v>81</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="11" t="n">
         <v>82</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="11" t="n">
         <v>83</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="9" t="n">
         <v>84</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="9" t="n">
         <v>85</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="7" t="n">
         <v>86</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="7" t="n">
         <v>87</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="7" t="n">
         <v>88</v>
       </c>
-      <c r="U7" t="str">
-        <f>_xlfn.CONCAT(W7:DR7&amp;", ")</f>
-        <v xml:space="preserve">57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, </v>
-      </c>
-      <c r="W7" s="9">
+      <c r="U7" s="0" t="str">
+        <f aca="false">_xlfn.concat(W7:DR7&amp;", ")</f>
+        <v>57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228,</v>
+      </c>
+      <c r="W7" s="13" t="n">
         <v>57</v>
       </c>
-      <c r="X7" s="9">
+      <c r="X7" s="13" t="n">
         <v>58</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="Y7" s="13" t="n">
         <v>59</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AA7" s="14" t="n">
         <v>61</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="14" t="n">
         <v>62</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AC7" s="13" t="n">
         <v>63</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AD7" s="13" t="n">
         <v>64</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AE7" s="13" t="n">
         <v>65</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AF7" s="13" t="n">
         <v>66</v>
       </c>
-      <c r="AG7" s="9">
+      <c r="AG7" s="13" t="n">
         <v>75</v>
       </c>
-      <c r="AH7" s="9">
+      <c r="AH7" s="13" t="n">
         <v>76</v>
       </c>
-      <c r="AI7" s="9">
+      <c r="AI7" s="13" t="n">
         <v>77</v>
       </c>
-      <c r="AJ7" s="9">
+      <c r="AJ7" s="13" t="n">
         <v>78</v>
       </c>
-      <c r="AK7" s="10">
+      <c r="AK7" s="14" t="n">
         <v>79</v>
       </c>
-      <c r="AL7" s="10">
+      <c r="AL7" s="14" t="n">
         <v>80</v>
       </c>
-      <c r="AM7" s="9">
+      <c r="AM7" s="13" t="n">
         <v>81</v>
       </c>
-      <c r="AN7" s="9">
+      <c r="AN7" s="13" t="n">
         <v>82</v>
       </c>
-      <c r="AO7" s="9">
+      <c r="AO7" s="13" t="n">
         <v>83</v>
       </c>
-      <c r="AP7" s="9">
+      <c r="AP7" s="13" t="n">
         <v>84</v>
       </c>
-      <c r="AQ7" s="9">
+      <c r="AQ7" s="13" t="n">
         <v>93</v>
       </c>
-      <c r="AR7" s="9">
+      <c r="AR7" s="13" t="n">
         <v>94</v>
       </c>
-      <c r="AS7" s="7">
+      <c r="AS7" s="11" t="n">
         <v>95</v>
       </c>
-      <c r="AT7" s="7">
+      <c r="AT7" s="11" t="n">
         <v>96</v>
       </c>
-      <c r="AU7" s="8">
+      <c r="AU7" s="12" t="n">
         <v>97</v>
       </c>
-      <c r="AV7" s="8">
+      <c r="AV7" s="12" t="n">
         <v>98</v>
       </c>
-      <c r="AW7" s="7">
+      <c r="AW7" s="11" t="n">
         <v>99</v>
       </c>
-      <c r="AX7" s="7">
+      <c r="AX7" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="AY7" s="9">
+      <c r="AY7" s="13" t="n">
         <v>101</v>
       </c>
-      <c r="AZ7" s="9">
+      <c r="AZ7" s="13" t="n">
         <v>102</v>
       </c>
-      <c r="BA7" s="9">
+      <c r="BA7" s="13" t="n">
         <v>111</v>
       </c>
-      <c r="BB7" s="9">
+      <c r="BB7" s="13" t="n">
         <v>112</v>
       </c>
-      <c r="BC7" s="7">
+      <c r="BC7" s="11" t="n">
         <v>113</v>
       </c>
-      <c r="BD7" s="7">
+      <c r="BD7" s="11" t="n">
         <v>114</v>
       </c>
-      <c r="BE7" s="8">
+      <c r="BE7" s="12" t="n">
         <v>115</v>
       </c>
-      <c r="BF7" s="8">
+      <c r="BF7" s="12" t="n">
         <v>116</v>
       </c>
-      <c r="BG7" s="7">
+      <c r="BG7" s="11" t="n">
         <v>117</v>
       </c>
-      <c r="BH7" s="7">
+      <c r="BH7" s="11" t="n">
         <v>118</v>
       </c>
-      <c r="BI7" s="9">
+      <c r="BI7" s="13" t="n">
         <v>119</v>
       </c>
-      <c r="BJ7" s="9">
+      <c r="BJ7" s="13" t="n">
         <v>120</v>
       </c>
-      <c r="BK7" s="9">
+      <c r="BK7" s="13" t="n">
         <v>129</v>
       </c>
-      <c r="BL7" s="9">
+      <c r="BL7" s="13" t="n">
         <v>130</v>
       </c>
-      <c r="BM7" s="7">
+      <c r="BM7" s="11" t="n">
         <v>131</v>
       </c>
-      <c r="BN7" s="7">
+      <c r="BN7" s="11" t="n">
         <v>132</v>
       </c>
-      <c r="BO7" s="5">
+      <c r="BO7" s="5" t="n">
         <v>133</v>
       </c>
-      <c r="BP7" s="5">
+      <c r="BP7" s="5" t="n">
         <v>134</v>
       </c>
-      <c r="BQ7" s="7">
+      <c r="BQ7" s="11" t="n">
         <v>135</v>
       </c>
-      <c r="BR7" s="7">
+      <c r="BR7" s="11" t="n">
         <v>136</v>
       </c>
-      <c r="BS7" s="9">
+      <c r="BS7" s="13" t="n">
         <v>137</v>
       </c>
-      <c r="BT7" s="9">
+      <c r="BT7" s="13" t="n">
         <v>138</v>
       </c>
-      <c r="BU7" s="9">
+      <c r="BU7" s="13" t="n">
         <v>147</v>
       </c>
-      <c r="BV7" s="9">
+      <c r="BV7" s="13" t="n">
         <v>148</v>
       </c>
-      <c r="BW7" s="7">
+      <c r="BW7" s="11" t="n">
         <v>149</v>
       </c>
-      <c r="BX7" s="7">
+      <c r="BX7" s="11" t="n">
         <v>150</v>
       </c>
-      <c r="BY7" s="5">
+      <c r="BY7" s="5" t="n">
         <v>151</v>
       </c>
-      <c r="BZ7" s="5">
+      <c r="BZ7" s="5" t="n">
         <v>152</v>
       </c>
-      <c r="CA7" s="7">
+      <c r="CA7" s="11" t="n">
         <v>153</v>
       </c>
-      <c r="CB7" s="7">
+      <c r="CB7" s="11" t="n">
         <v>154</v>
       </c>
-      <c r="CC7" s="9">
+      <c r="CC7" s="13" t="n">
         <v>155</v>
       </c>
-      <c r="CD7" s="9">
+      <c r="CD7" s="13" t="n">
         <v>156</v>
       </c>
-      <c r="CE7" s="9">
+      <c r="CE7" s="13" t="n">
         <v>165</v>
       </c>
-      <c r="CF7" s="9">
+      <c r="CF7" s="13" t="n">
         <v>166</v>
       </c>
-      <c r="CG7" s="7">
+      <c r="CG7" s="11" t="n">
         <v>167</v>
       </c>
-      <c r="CH7" s="7">
+      <c r="CH7" s="11" t="n">
         <v>168</v>
       </c>
-      <c r="CI7" s="8">
+      <c r="CI7" s="12" t="n">
         <v>169</v>
       </c>
-      <c r="CJ7" s="8">
+      <c r="CJ7" s="12" t="n">
         <v>170</v>
       </c>
-      <c r="CK7" s="7">
+      <c r="CK7" s="11" t="n">
         <v>171</v>
       </c>
-      <c r="CL7" s="7">
+      <c r="CL7" s="11" t="n">
         <v>172</v>
       </c>
-      <c r="CM7" s="9">
+      <c r="CM7" s="13" t="n">
         <v>173</v>
       </c>
-      <c r="CN7" s="9">
+      <c r="CN7" s="13" t="n">
         <v>174</v>
       </c>
-      <c r="CO7" s="9">
+      <c r="CO7" s="13" t="n">
         <v>183</v>
       </c>
-      <c r="CP7" s="9">
+      <c r="CP7" s="13" t="n">
         <v>184</v>
       </c>
-      <c r="CQ7" s="7">
+      <c r="CQ7" s="11" t="n">
         <v>185</v>
       </c>
-      <c r="CR7" s="7">
+      <c r="CR7" s="11" t="n">
         <v>186</v>
       </c>
-      <c r="CS7" s="8">
+      <c r="CS7" s="12" t="n">
         <v>187</v>
       </c>
-      <c r="CT7" s="8">
+      <c r="CT7" s="12" t="n">
         <v>188</v>
       </c>
-      <c r="CU7" s="7">
+      <c r="CU7" s="11" t="n">
         <v>189</v>
       </c>
-      <c r="CV7" s="7">
+      <c r="CV7" s="11" t="n">
         <v>190</v>
       </c>
-      <c r="CW7" s="9">
+      <c r="CW7" s="13" t="n">
         <v>191</v>
       </c>
-      <c r="CX7" s="9">
+      <c r="CX7" s="13" t="n">
         <v>192</v>
       </c>
-      <c r="CY7" s="9">
+      <c r="CY7" s="13" t="n">
         <v>201</v>
       </c>
-      <c r="CZ7" s="9">
+      <c r="CZ7" s="13" t="n">
         <v>202</v>
       </c>
-      <c r="DA7" s="9">
+      <c r="DA7" s="13" t="n">
         <v>203</v>
       </c>
-      <c r="DB7" s="9">
+      <c r="DB7" s="13" t="n">
         <v>204</v>
       </c>
-      <c r="DC7" s="10">
+      <c r="DC7" s="14" t="n">
         <v>205</v>
       </c>
-      <c r="DD7" s="10">
+      <c r="DD7" s="14" t="n">
         <v>206</v>
       </c>
-      <c r="DE7" s="9">
+      <c r="DE7" s="13" t="n">
         <v>207</v>
       </c>
-      <c r="DF7" s="9">
+      <c r="DF7" s="13" t="n">
         <v>208</v>
       </c>
-      <c r="DG7" s="9">
+      <c r="DG7" s="13" t="n">
         <v>209</v>
       </c>
-      <c r="DH7" s="9">
+      <c r="DH7" s="13" t="n">
         <v>210</v>
       </c>
-      <c r="DI7" s="9">
+      <c r="DI7" s="13" t="n">
         <v>219</v>
       </c>
-      <c r="DJ7" s="9">
+      <c r="DJ7" s="13" t="n">
         <v>220</v>
       </c>
-      <c r="DK7" s="9">
+      <c r="DK7" s="13" t="n">
         <v>221</v>
       </c>
-      <c r="DL7" s="9">
+      <c r="DL7" s="13" t="n">
         <v>222</v>
       </c>
-      <c r="DM7" s="10">
+      <c r="DM7" s="14" t="n">
         <v>223</v>
       </c>
-      <c r="DN7" s="10">
+      <c r="DN7" s="14" t="n">
         <v>224</v>
       </c>
-      <c r="DO7" s="9">
+      <c r="DO7" s="13" t="n">
         <v>225</v>
       </c>
-      <c r="DP7" s="9">
+      <c r="DP7" s="13" t="n">
         <v>226</v>
       </c>
-      <c r="DQ7" s="9">
+      <c r="DQ7" s="13" t="n">
         <v>227</v>
       </c>
-      <c r="DR7" s="9">
+      <c r="DR7" s="13" t="n">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+    <row r="8" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="n">
         <v>89</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7" t="n">
         <v>90</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7" t="n">
         <v>91</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="9" t="n">
         <v>92</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="9" t="n">
         <v>93</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="11" t="n">
         <v>94</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="11" t="n">
         <v>95</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="11" t="n">
         <v>96</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="12" t="n">
         <v>97</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="12" t="n">
         <v>98</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="11" t="n">
         <v>99</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="11" t="n">
         <v>101</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="9" t="n">
         <v>102</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="9" t="n">
         <v>103</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="7" t="n">
         <v>104</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="7" t="n">
         <v>105</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="7" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+    <row r="9" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7" t="n">
         <v>107</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7" t="n">
         <v>108</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7" t="n">
         <v>109</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="9" t="n">
         <v>110</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="9" t="n">
         <v>111</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="11" t="n">
         <v>112</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="11" t="n">
         <v>113</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="15" t="n">
         <v>114</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="16" t="n">
         <v>115</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="16" t="n">
         <v>116</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="15" t="n">
         <v>117</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="11" t="n">
         <v>118</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="11" t="n">
         <v>119</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="9" t="n">
         <v>120</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="9" t="n">
         <v>121</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="7" t="n">
         <v>122</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="7" t="n">
         <v>123</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="7" t="n">
         <v>124</v>
       </c>
-      <c r="U9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="U9" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="7" t="n">
         <v>125</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7" t="n">
         <v>126</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7" t="n">
         <v>127</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="9" t="n">
         <v>128</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="9" t="n">
         <v>129</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="11" t="n">
         <v>130</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="11" t="n">
         <v>131</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="15" t="n">
         <v>132</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="16" t="n">
         <v>133</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="16" t="n">
         <v>134</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="15" t="n">
         <v>135</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="11" t="n">
         <v>136</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="11" t="n">
         <v>137</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="9" t="n">
         <v>138</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="9" t="n">
         <v>139</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="7" t="n">
         <v>140</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="7" t="n">
         <v>141</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="7" t="n">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+    <row r="11" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7" t="n">
         <v>143</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7" t="n">
         <v>144</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7" t="n">
         <v>145</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9" t="n">
         <v>146</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="9" t="n">
         <v>147</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="11" t="n">
         <v>148</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="11" t="n">
         <v>149</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="15" t="n">
         <v>150</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="16" t="n">
         <v>151</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="16" t="n">
         <v>152</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="15" t="n">
         <v>153</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="11" t="n">
         <v>154</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="11" t="n">
         <v>155</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="9" t="n">
         <v>156</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="9" t="n">
         <v>157</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="7" t="n">
         <v>158</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="7" t="n">
         <v>159</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="7" t="n">
         <v>160</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+    <row r="12" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="n">
         <v>161</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7" t="n">
         <v>162</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7" t="n">
         <v>163</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="9" t="n">
         <v>164</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="9" t="n">
         <v>165</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="11" t="n">
         <v>166</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="11" t="n">
         <v>167</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="15" t="n">
         <v>168</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="16" t="n">
         <v>169</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="16" t="n">
         <v>170</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="15" t="n">
         <v>171</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="11" t="n">
         <v>172</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="11" t="n">
         <v>173</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="9" t="n">
         <v>174</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="9" t="n">
         <v>175</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="7" t="n">
         <v>176</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="7" t="n">
         <v>177</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="7" t="n">
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+    <row r="13" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="n">
         <v>179</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7" t="n">
         <v>180</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7" t="n">
         <v>181</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="9" t="n">
         <v>182</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="9" t="n">
         <v>183</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="11" t="n">
         <v>184</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="11" t="n">
         <v>185</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="11" t="n">
         <v>186</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="12" t="n">
         <v>187</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="12" t="n">
         <v>188</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="11" t="n">
         <v>189</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="11" t="n">
         <v>190</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="11" t="n">
         <v>191</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="9" t="n">
         <v>192</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="9" t="n">
         <v>193</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="7" t="n">
         <v>194</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="7" t="n">
         <v>195</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="7" t="n">
         <v>196</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+    <row r="14" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7" t="n">
         <v>197</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7" t="n">
         <v>198</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7" t="n">
         <v>199</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="9" t="n">
         <v>201</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="11" t="n">
         <v>202</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="11" t="n">
         <v>203</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="11" t="n">
         <v>204</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="12" t="n">
         <v>205</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="12" t="n">
         <v>206</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="11" t="n">
         <v>207</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="11" t="n">
         <v>208</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="11" t="n">
         <v>209</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="9" t="n">
         <v>210</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="9" t="n">
         <v>211</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="7" t="n">
         <v>212</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="7" t="n">
         <v>213</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="7" t="n">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+    <row r="15" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="n">
         <v>215</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7" t="n">
         <v>216</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="7" t="n">
         <v>217</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="9" t="n">
         <v>218</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="9" t="n">
         <v>219</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="9" t="n">
         <v>220</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="9" t="n">
         <v>221</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="9" t="n">
         <v>222</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="10" t="n">
         <v>223</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="10" t="n">
         <v>224</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="9" t="n">
         <v>225</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="9" t="n">
         <v>226</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="9" t="n">
         <v>227</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="9" t="n">
         <v>228</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="9" t="n">
         <v>229</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="7" t="n">
         <v>230</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="7" t="n">
         <v>231</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="7" t="n">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="2:122" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
+    <row r="16" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7" t="n">
         <v>233</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="7" t="n">
         <v>234</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="9" t="n">
         <v>235</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="9" t="n">
         <v>236</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="9" t="n">
         <v>237</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="9" t="n">
         <v>238</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="9" t="n">
         <v>239</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="10" t="n">
         <v>240</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="10" t="n">
         <v>241</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="9" t="n">
         <v>242</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="9" t="n">
         <v>243</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="9" t="n">
         <v>244</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="9" t="n">
         <v>245</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="9" t="n">
         <v>246</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="7" t="n">
         <v>247</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="7" t="n">
         <v>248</v>
       </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="S16" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="n">
         <v>249</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="7" t="n">
         <v>250</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="7" t="n">
         <v>251</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="7" t="n">
         <v>252</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="7" t="n">
         <v>253</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="7" t="n">
         <v>254</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="8" t="n">
         <v>255</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="7" t="n">
         <v>257</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="7" t="n">
         <v>258</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="7" t="n">
         <v>259</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="7" t="n">
         <v>260</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="7" t="n">
         <v>261</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="7" t="n">
         <v>262</v>
       </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="R17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="n">
         <v>263</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="7" t="n">
         <v>264</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="7" t="n">
         <v>265</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="7" t="n">
         <v>266</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="7" t="n">
         <v>267</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="8" t="n">
         <v>268</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="8" t="n">
         <v>269</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="7" t="n">
         <v>270</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="7" t="n">
         <v>271</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="7" t="n">
         <v>272</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="7" t="n">
         <v>273</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="7" t="n">
         <v>274</v>
       </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="Q18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="n">
         <v>275</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="7" t="n">
         <v>276</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="7" t="n">
         <v>277</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="7" t="n">
         <v>278</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="8" t="n">
         <v>279</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="8" t="n">
         <v>280</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="7" t="n">
         <v>281</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="7" t="n">
         <v>282</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="7" t="n">
         <v>283</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="7" t="n">
         <v>284</v>
       </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
+      <c r="P19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <mergeCells count="4">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="O21:S21"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
